--- a/AutoDemoPointers.xlsx
+++ b/AutoDemoPointers.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4898E0D-C611-4B2D-BFF8-754350136490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D64653-FA56-4BEC-8F82-4BCE8AE95EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{BF0A0D91-B89A-4FB4-ACC8-F22FBFD306B3}"/>
+    <workbookView xWindow="-20010" yWindow="660" windowWidth="17925" windowHeight="9465" xr2:uid="{BF0A0D91-B89A-4FB4-ACC8-F22FBFD306B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Data List" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="1795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3289" uniqueCount="1815">
   <si>
     <t>Big Endian</t>
   </si>
@@ -4297,36 +4297,6 @@
     <t>8C5B319E-8C5B3B7C</t>
   </si>
   <si>
-    <t>15EF68</t>
-  </si>
-  <si>
-    <t>B48EA50C</t>
-  </si>
-  <si>
-    <t>AC8EA50C</t>
-  </si>
-  <si>
-    <t>WV Paths</t>
-  </si>
-  <si>
-    <t>0CAA13F8</t>
-  </si>
-  <si>
-    <t>Skydeck objs</t>
-  </si>
-  <si>
-    <t>0CA56600</t>
-  </si>
-  <si>
-    <t>LW Path List</t>
-  </si>
-  <si>
-    <t>0C908FC0</t>
-  </si>
-  <si>
-    <t>Rd_Ruin</t>
-  </si>
-  <si>
     <t>0x181050</t>
   </si>
   <si>
@@ -4549,9 +4519,6 @@
     <t>Spawned in SonicMilesTornade</t>
   </si>
   <si>
-    <t>8C900E48</t>
-  </si>
-  <si>
     <t>late_DrawSprite2D</t>
   </si>
   <si>
@@ -5417,6 +5384,99 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>ChaosUnderLight2</t>
+  </si>
+  <si>
+    <t>8C0BF6E6</t>
+  </si>
+  <si>
+    <t>DisplayChaosCrashSphere</t>
+  </si>
+  <si>
+    <t>8C0BE720</t>
+  </si>
+  <si>
+    <t>UnkChaos6Value</t>
+  </si>
+  <si>
+    <t>8C6A4EB8</t>
+  </si>
+  <si>
+    <t>UnkChaos61</t>
+  </si>
+  <si>
+    <t>8C0C0620</t>
+  </si>
+  <si>
+    <t>UnkChaos62</t>
+  </si>
+  <si>
+    <t>8C0C03E0</t>
+  </si>
+  <si>
+    <t>UnkChaos63</t>
+  </si>
+  <si>
+    <t>8C0BFA18</t>
+  </si>
+  <si>
+    <t>CHAOS_Action</t>
+  </si>
+  <si>
+    <t>CHAOS_DrawShapeMotion</t>
+  </si>
+  <si>
+    <t>texlist_chaos_emerald</t>
+  </si>
+  <si>
+    <t>8C5138A8</t>
+  </si>
+  <si>
+    <t>texlist_chaos_surface</t>
+  </si>
+  <si>
+    <t>8C5138F8</t>
+  </si>
+  <si>
+    <t>texlist_chaos_unknown</t>
+  </si>
+  <si>
+    <t>8C513EE4</t>
+  </si>
+  <si>
+    <t>8C0B8542</t>
+  </si>
+  <si>
+    <t>8C0B7BB8</t>
+  </si>
+  <si>
+    <t>8C0B783C</t>
+  </si>
+  <si>
+    <t>8C0B8780</t>
+  </si>
+  <si>
+    <t>8C0B6820</t>
+  </si>
+  <si>
+    <t>8C593242</t>
+  </si>
+  <si>
+    <t>8C5932C8</t>
+  </si>
+  <si>
+    <t>8C6875D8</t>
+  </si>
+  <si>
+    <t>8C4CE7B0</t>
+  </si>
+  <si>
+    <t>8C4CE22C</t>
+  </si>
+  <si>
+    <t>8C4D7534</t>
   </si>
 </sst>
 </file>
@@ -6040,31 +6100,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491E3355-FE0C-4C06-9A33-67ABC97DABE2}">
-  <dimension ref="A1:O479"/>
+  <dimension ref="A1:O491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A467" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E476" sqref="E476"/>
+    <sheetView tabSelected="1" topLeftCell="A424" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E439" sqref="E437:G439"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
-    <col min="4" max="4" width="3.453125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.26953125" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
     <col min="6" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
-    <col min="10" max="10" width="6.54296875" customWidth="1"/>
-    <col min="11" max="11" width="3.26953125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="56.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" customWidth="1"/>
+    <col min="11" max="11" width="3.28515625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="56.42578125" customWidth="1"/>
     <col min="13" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="13.26953125" customWidth="1"/>
-    <col min="16" max="16" width="13.81640625" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>531</v>
       </c>
@@ -6082,7 +6142,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>451</v>
       </c>
@@ -6113,7 +6173,7 @@
       </c>
       <c r="L2" s="31"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>537</v>
       </c>
@@ -6149,7 +6209,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>538</v>
       </c>
@@ -6185,7 +6245,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>440</v>
       </c>
@@ -6221,7 +6281,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>927</v>
       </c>
@@ -6257,7 +6317,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>438</v>
       </c>
@@ -6290,7 +6350,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>437</v>
       </c>
@@ -6326,7 +6386,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>436</v>
       </c>
@@ -6362,7 +6422,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>435</v>
       </c>
@@ -6395,7 +6455,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>539</v>
       </c>
@@ -6428,7 +6488,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>434</v>
       </c>
@@ -6464,7 +6524,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>528</v>
       </c>
@@ -6500,7 +6560,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>433</v>
       </c>
@@ -6533,7 +6593,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>439</v>
       </c>
@@ -6566,7 +6626,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>272</v>
       </c>
@@ -6602,7 +6662,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>229</v>
       </c>
@@ -6635,7 +6695,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>352</v>
       </c>
@@ -6668,7 +6728,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1272</v>
       </c>
@@ -6701,7 +6761,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1403</v>
       </c>
@@ -6734,7 +6794,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>262</v>
       </c>
@@ -6767,7 +6827,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>264</v>
       </c>
@@ -6800,7 +6860,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>253</v>
       </c>
@@ -6833,7 +6893,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>383</v>
       </c>
@@ -6866,7 +6926,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>225</v>
       </c>
@@ -6899,7 +6959,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>507</v>
       </c>
@@ -6932,7 +6992,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>202</v>
       </c>
@@ -6965,7 +7025,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -6998,7 +7058,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -7031,7 +7091,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -7064,7 +7124,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -7097,7 +7157,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -7133,7 +7193,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>681</v>
       </c>
@@ -7166,7 +7226,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>680</v>
       </c>
@@ -7199,7 +7259,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>678</v>
       </c>
@@ -7232,7 +7292,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>900</v>
       </c>
@@ -7265,7 +7325,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>781</v>
       </c>
@@ -7298,7 +7358,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>369</v>
       </c>
@@ -7331,7 +7391,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -7364,7 +7424,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1010</v>
       </c>
@@ -7397,7 +7457,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>367</v>
       </c>
@@ -7430,7 +7490,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>367</v>
       </c>
@@ -7463,7 +7523,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1265</v>
       </c>
@@ -7496,7 +7556,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1298</v>
       </c>
@@ -7529,7 +7589,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1015</v>
       </c>
@@ -7562,7 +7622,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>478</v>
       </c>
@@ -7595,7 +7655,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>596</v>
       </c>
@@ -7628,7 +7688,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>723</v>
       </c>
@@ -7661,7 +7721,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>281</v>
       </c>
@@ -7694,7 +7754,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1267</v>
       </c>
@@ -7727,7 +7787,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>724</v>
       </c>
@@ -7760,7 +7820,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>749</v>
       </c>
@@ -7793,7 +7853,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>721</v>
       </c>
@@ -7826,7 +7886,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>963</v>
       </c>
@@ -7859,7 +7919,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>189</v>
       </c>
@@ -7892,7 +7952,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1290</v>
       </c>
@@ -7925,7 +7985,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>589</v>
       </c>
@@ -7958,7 +8018,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>198</v>
       </c>
@@ -7991,7 +8051,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>188</v>
       </c>
@@ -8024,7 +8084,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>473</v>
       </c>
@@ -8057,7 +8117,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>752</v>
       </c>
@@ -8090,7 +8150,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>165</v>
       </c>
@@ -8123,7 +8183,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>181</v>
       </c>
@@ -8156,7 +8216,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>751</v>
       </c>
@@ -8189,7 +8249,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1306</v>
       </c>
@@ -8222,7 +8282,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>124</v>
       </c>
@@ -8255,7 +8315,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>123</v>
       </c>
@@ -8288,7 +8348,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>125</v>
       </c>
@@ -8321,7 +8381,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>122</v>
       </c>
@@ -8354,7 +8414,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>100</v>
       </c>
@@ -8390,7 +8450,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>491</v>
       </c>
@@ -8423,7 +8483,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>987</v>
       </c>
@@ -8456,7 +8516,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>385</v>
       </c>
@@ -8489,7 +8549,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>942</v>
       </c>
@@ -8522,7 +8582,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>357</v>
       </c>
@@ -8559,7 +8619,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>230</v>
       </c>
@@ -8599,7 +8659,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -8639,7 +8699,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>452</v>
       </c>
@@ -8679,7 +8739,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>388</v>
       </c>
@@ -8716,7 +8776,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>776</v>
       </c>
@@ -8749,7 +8809,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>577</v>
       </c>
@@ -8782,7 +8842,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>941</v>
       </c>
@@ -8818,7 +8878,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>386</v>
       </c>
@@ -8851,7 +8911,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>661</v>
       </c>
@@ -8884,7 +8944,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>602</v>
       </c>
@@ -8917,7 +8977,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>466</v>
       </c>
@@ -8950,7 +9010,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1032</v>
       </c>
@@ -8983,7 +9043,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>208</v>
       </c>
@@ -9016,7 +9076,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>791</v>
       </c>
@@ -9028,7 +9088,7 @@
         <v>9290078C</v>
       </c>
       <c r="E89" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
       <c r="F89" t="s">
         <v>1246</v>
@@ -9049,7 +9109,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>361</v>
       </c>
@@ -9082,7 +9142,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>780</v>
       </c>
@@ -9115,7 +9175,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>401</v>
       </c>
@@ -9148,7 +9208,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>670</v>
       </c>
@@ -9181,7 +9241,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>946</v>
       </c>
@@ -9214,7 +9274,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>448</v>
       </c>
@@ -9247,7 +9307,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>346</v>
       </c>
@@ -9280,7 +9340,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>347</v>
       </c>
@@ -9313,7 +9373,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>186</v>
       </c>
@@ -9346,7 +9406,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>975</v>
       </c>
@@ -9379,7 +9439,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>45</v>
       </c>
@@ -9412,7 +9472,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>209</v>
       </c>
@@ -9445,7 +9505,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>505</v>
       </c>
@@ -9478,7 +9538,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>290</v>
       </c>
@@ -9511,7 +9571,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>966</v>
       </c>
@@ -9544,7 +9604,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>921</v>
       </c>
@@ -9577,7 +9637,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>920</v>
       </c>
@@ -9610,12 +9670,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1278</v>
       </c>
       <c r="B107" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="5"/>
@@ -9646,7 +9706,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>497</v>
       </c>
@@ -9679,7 +9739,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>499</v>
       </c>
@@ -9712,7 +9772,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>157</v>
       </c>
@@ -9748,7 +9808,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>495</v>
       </c>
@@ -9781,7 +9841,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>365</v>
       </c>
@@ -9814,7 +9874,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>565</v>
       </c>
@@ -9847,7 +9907,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>156</v>
       </c>
@@ -9880,7 +9940,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>773</v>
       </c>
@@ -9913,7 +9973,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>697</v>
       </c>
@@ -9946,7 +10006,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1018</v>
       </c>
@@ -9979,7 +10039,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>158</v>
       </c>
@@ -10012,7 +10072,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>562</v>
       </c>
@@ -10045,7 +10105,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>111</v>
       </c>
@@ -10078,7 +10138,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>112</v>
       </c>
@@ -10111,7 +10171,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>113</v>
       </c>
@@ -10144,7 +10204,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>988</v>
       </c>
@@ -10177,7 +10237,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>120</v>
       </c>
@@ -10210,7 +10270,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>121</v>
       </c>
@@ -10243,7 +10303,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>567</v>
       </c>
@@ -10276,7 +10336,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>200</v>
       </c>
@@ -10309,7 +10369,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>520</v>
       </c>
@@ -10342,7 +10402,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1034</v>
       </c>
@@ -10375,7 +10435,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>260</v>
       </c>
@@ -10411,7 +10471,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>193</v>
       </c>
@@ -10447,7 +10507,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>372</v>
       </c>
@@ -10480,7 +10540,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1280</v>
       </c>
@@ -10513,7 +10573,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1314</v>
       </c>
@@ -10546,7 +10606,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>695</v>
       </c>
@@ -10579,7 +10639,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>481</v>
       </c>
@@ -10612,7 +10672,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>197</v>
       </c>
@@ -10645,7 +10705,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>441</v>
       </c>
@@ -10680,7 +10740,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>432</v>
       </c>
@@ -10713,7 +10773,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>994</v>
       </c>
@@ -10746,7 +10806,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>756</v>
       </c>
@@ -10779,7 +10839,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>664</v>
       </c>
@@ -10812,7 +10872,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>666</v>
       </c>
@@ -10845,7 +10905,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>59</v>
       </c>
@@ -10878,7 +10938,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>948</v>
       </c>
@@ -10911,7 +10971,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>250</v>
       </c>
@@ -10944,7 +11004,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>429</v>
       </c>
@@ -10977,7 +11037,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>522</v>
       </c>
@@ -11010,7 +11070,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>475</v>
       </c>
@@ -11043,7 +11103,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>47</v>
       </c>
@@ -11076,7 +11136,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>477</v>
       </c>
@@ -11109,7 +11169,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>735</v>
       </c>
@@ -11142,7 +11202,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>696</v>
       </c>
@@ -11175,7 +11235,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>39</v>
       </c>
@@ -11208,7 +11268,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1308</v>
       </c>
@@ -11241,7 +11301,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>227</v>
       </c>
@@ -11274,7 +11334,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>219</v>
       </c>
@@ -11307,7 +11367,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>287</v>
       </c>
@@ -11340,7 +11400,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>901</v>
       </c>
@@ -11373,7 +11433,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>267</v>
       </c>
@@ -11406,7 +11466,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>268</v>
       </c>
@@ -11439,7 +11499,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>266</v>
       </c>
@@ -11472,7 +11532,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1302</v>
       </c>
@@ -11505,7 +11565,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>384</v>
       </c>
@@ -11538,7 +11598,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>257</v>
       </c>
@@ -11550,10 +11610,10 @@
         <v>30A2048C</v>
       </c>
       <c r="E165" t="s">
-        <v>1468</v>
+        <v>1458</v>
       </c>
       <c r="F165" t="s">
-        <v>1458</v>
+        <v>1448</v>
       </c>
       <c r="G165" t="str">
         <f t="shared" si="15"/>
@@ -11571,10 +11631,10 @@
         <v>63</v>
       </c>
       <c r="L165" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1170</v>
       </c>
@@ -11607,7 +11667,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>232</v>
       </c>
@@ -11640,7 +11700,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>762</v>
       </c>
@@ -11673,7 +11733,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>445</v>
       </c>
@@ -11706,7 +11766,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>916</v>
       </c>
@@ -11739,7 +11799,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1003</v>
       </c>
@@ -11772,7 +11832,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1319</v>
       </c>
@@ -11805,7 +11865,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1320</v>
       </c>
@@ -11838,7 +11898,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1321</v>
       </c>
@@ -11871,7 +11931,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1002</v>
       </c>
@@ -11904,7 +11964,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>431</v>
       </c>
@@ -11937,7 +11997,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>484</v>
       </c>
@@ -11970,7 +12030,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>199</v>
       </c>
@@ -12003,7 +12063,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1310</v>
       </c>
@@ -12036,7 +12096,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>604</v>
       </c>
@@ -12069,7 +12129,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>782</v>
       </c>
@@ -12102,7 +12162,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>950</v>
       </c>
@@ -12135,7 +12195,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>973</v>
       </c>
@@ -12168,7 +12228,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1311</v>
       </c>
@@ -12201,7 +12261,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1196</v>
       </c>
@@ -12234,7 +12294,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1195</v>
       </c>
@@ -12267,7 +12327,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>997</v>
       </c>
@@ -12300,7 +12360,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>929</v>
       </c>
@@ -12333,7 +12393,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>479</v>
       </c>
@@ -12366,7 +12426,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>607</v>
       </c>
@@ -12399,7 +12459,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>187</v>
       </c>
@@ -12432,7 +12492,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>245</v>
       </c>
@@ -12465,7 +12525,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>182</v>
       </c>
@@ -12498,7 +12558,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>218</v>
       </c>
@@ -12531,7 +12591,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>588</v>
       </c>
@@ -12564,7 +12624,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>184</v>
       </c>
@@ -12600,7 +12660,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>217</v>
       </c>
@@ -12633,7 +12693,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>591</v>
       </c>
@@ -12666,7 +12726,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>297</v>
       </c>
@@ -12699,7 +12759,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>291</v>
       </c>
@@ -12732,7 +12792,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>487</v>
       </c>
@@ -12765,7 +12825,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1415</v>
       </c>
@@ -12798,7 +12858,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>480</v>
       </c>
@@ -12831,7 +12891,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1270</v>
       </c>
@@ -12864,7 +12924,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>494</v>
       </c>
@@ -12897,7 +12957,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>485</v>
       </c>
@@ -12930,7 +12990,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>277</v>
       </c>
@@ -12963,7 +13023,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>183</v>
       </c>
@@ -12996,7 +13056,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>489</v>
       </c>
@@ -13029,7 +13089,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1304</v>
       </c>
@@ -13062,7 +13122,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>979</v>
       </c>
@@ -13095,7 +13155,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>978</v>
       </c>
@@ -13128,7 +13188,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>71</v>
       </c>
@@ -13161,7 +13221,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>92</v>
       </c>
@@ -13194,7 +13254,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>610</v>
       </c>
@@ -13227,7 +13287,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>85</v>
       </c>
@@ -13260,7 +13320,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>84</v>
       </c>
@@ -13293,7 +13353,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>81</v>
       </c>
@@ -13326,7 +13386,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>81</v>
       </c>
@@ -13359,7 +13419,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>128</v>
       </c>
@@ -13392,7 +13452,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>127</v>
       </c>
@@ -13425,7 +13485,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>72</v>
       </c>
@@ -13458,7 +13518,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>73</v>
       </c>
@@ -13494,7 +13554,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>93</v>
       </c>
@@ -13527,7 +13587,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>98</v>
       </c>
@@ -13560,7 +13620,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>107</v>
       </c>
@@ -13593,7 +13653,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1006</v>
       </c>
@@ -13623,7 +13683,7 @@
         <v>40C0058C</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>237</v>
       </c>
@@ -13656,7 +13716,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>82</v>
       </c>
@@ -13686,7 +13746,7 @@
         <v>20BF058C</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>94</v>
       </c>
@@ -13719,7 +13779,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>95</v>
       </c>
@@ -13752,7 +13812,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>96</v>
       </c>
@@ -13782,7 +13842,7 @@
         <v>60C1058C</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>97</v>
       </c>
@@ -13815,7 +13875,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1361</v>
       </c>
@@ -13848,7 +13908,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1360</v>
       </c>
@@ -13881,7 +13941,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1359</v>
       </c>
@@ -13914,7 +13974,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1362</v>
       </c>
@@ -13947,7 +14007,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>99</v>
       </c>
@@ -13983,7 +14043,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>212</v>
       </c>
@@ -14016,7 +14076,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>68</v>
       </c>
@@ -14049,7 +14109,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>69</v>
       </c>
@@ -14082,7 +14142,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>108</v>
       </c>
@@ -14115,7 +14175,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>83</v>
       </c>
@@ -14148,7 +14208,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>126</v>
       </c>
@@ -14181,7 +14241,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>80</v>
       </c>
@@ -14214,7 +14274,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1224</v>
       </c>
@@ -14247,7 +14307,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>392</v>
       </c>
@@ -14280,7 +14340,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>284</v>
       </c>
@@ -14313,7 +14373,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>382</v>
       </c>
@@ -14346,7 +14406,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>283</v>
       </c>
@@ -14379,7 +14439,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>196</v>
       </c>
@@ -14412,7 +14472,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1286</v>
       </c>
@@ -14445,7 +14505,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1294</v>
       </c>
@@ -14478,7 +14538,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1333</v>
       </c>
@@ -14511,7 +14571,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>603</v>
       </c>
@@ -14544,7 +14604,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>590</v>
       </c>
@@ -14577,7 +14637,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>970</v>
       </c>
@@ -14610,7 +14670,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>932</v>
       </c>
@@ -14643,7 +14703,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1400</v>
       </c>
@@ -14676,7 +14736,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>420</v>
       </c>
@@ -14709,7 +14769,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1405</v>
       </c>
@@ -14745,7 +14805,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>414</v>
       </c>
@@ -14778,7 +14838,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>934</v>
       </c>
@@ -14811,7 +14871,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>34</v>
       </c>
@@ -14844,7 +14904,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1401</v>
       </c>
@@ -14877,7 +14937,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>380</v>
       </c>
@@ -14910,7 +14970,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>411</v>
       </c>
@@ -14943,7 +15003,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>201</v>
       </c>
@@ -14976,7 +15036,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>194</v>
       </c>
@@ -15009,7 +15069,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1409</v>
       </c>
@@ -15042,7 +15102,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>66</v>
       </c>
@@ -15075,7 +15135,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>235</v>
       </c>
@@ -15111,7 +15171,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>943</v>
       </c>
@@ -15144,7 +15204,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>381</v>
       </c>
@@ -15177,7 +15237,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>282</v>
       </c>
@@ -15210,7 +15270,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1372</v>
       </c>
@@ -15243,7 +15303,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>772</v>
       </c>
@@ -15279,7 +15339,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>764</v>
       </c>
@@ -15315,7 +15375,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1194</v>
       </c>
@@ -15351,7 +15411,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>958</v>
       </c>
@@ -15384,10 +15444,10 @@
         <v>63</v>
       </c>
       <c r="L280" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>960</v>
       </c>
@@ -15420,7 +15480,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1296</v>
       </c>
@@ -15456,7 +15516,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>690</v>
       </c>
@@ -15489,7 +15549,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1282</v>
       </c>
@@ -15522,7 +15582,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1407</v>
       </c>
@@ -15555,7 +15615,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1300</v>
       </c>
@@ -15588,7 +15648,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>409</v>
       </c>
@@ -15621,7 +15681,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>959</v>
       </c>
@@ -15654,7 +15714,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>706</v>
       </c>
@@ -15687,7 +15747,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>185</v>
       </c>
@@ -15699,7 +15759,7 @@
         <v>009D078C</v>
       </c>
       <c r="E290" t="s">
-        <v>1507</v>
+        <v>1496</v>
       </c>
       <c r="F290" t="s">
         <v>707</v>
@@ -15720,10 +15780,10 @@
         <v>530</v>
       </c>
       <c r="L290" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>511</v>
       </c>
@@ -15759,7 +15819,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1284</v>
       </c>
@@ -15792,7 +15852,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>36</v>
       </c>
@@ -15828,7 +15888,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1381</v>
       </c>
@@ -15864,7 +15924,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>430</v>
       </c>
@@ -15897,7 +15957,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>394</v>
       </c>
@@ -15930,7 +15990,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>410</v>
       </c>
@@ -15966,7 +16026,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1165</v>
       </c>
@@ -16002,7 +16062,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>793</v>
       </c>
@@ -16035,7 +16095,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1176</v>
       </c>
@@ -16068,7 +16128,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1179</v>
       </c>
@@ -16101,7 +16161,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>676</v>
       </c>
@@ -16134,7 +16194,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>592</v>
       </c>
@@ -16167,7 +16227,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>345</v>
       </c>
@@ -16179,10 +16239,10 @@
         <v>C0A1068C</v>
       </c>
       <c r="E304" t="s">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="F304" t="s">
-        <v>1453</v>
+        <v>1443</v>
       </c>
       <c r="G304" t="str">
         <f t="shared" si="23"/>
@@ -16200,7 +16260,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1167</v>
       </c>
@@ -16212,10 +16272,10 @@
         <v>E0A2068C</v>
       </c>
       <c r="E305" t="s">
-        <v>1461</v>
+        <v>1451</v>
       </c>
       <c r="F305" t="s">
-        <v>1454</v>
+        <v>1444</v>
       </c>
       <c r="G305" t="str">
         <f t="shared" si="23"/>
@@ -16233,7 +16293,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>50</v>
       </c>
@@ -16245,10 +16305,10 @@
         <v>E67E018C</v>
       </c>
       <c r="E306" t="s">
-        <v>1463</v>
+        <v>1453</v>
       </c>
       <c r="F306" t="s">
-        <v>1455</v>
+        <v>1445</v>
       </c>
       <c r="G306" t="str">
         <f t="shared" si="23"/>
@@ -16266,7 +16326,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1269</v>
       </c>
@@ -16278,10 +16338,10 @@
         <v>803B078C</v>
       </c>
       <c r="E307" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
       <c r="F307" t="s">
-        <v>1456</v>
+        <v>1446</v>
       </c>
       <c r="G307" t="str">
         <f t="shared" si="23"/>
@@ -16299,7 +16359,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1289</v>
       </c>
@@ -16311,10 +16371,10 @@
         <v>9216078C</v>
       </c>
       <c r="E308" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
       <c r="F308" t="s">
-        <v>1457</v>
+        <v>1447</v>
       </c>
       <c r="G308" t="str">
         <f t="shared" si="23"/>
@@ -16332,7 +16392,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1184</v>
       </c>
@@ -16344,7 +16404,7 @@
         <v>7CB2198C</v>
       </c>
       <c r="E309" t="s">
-        <v>1513</v>
+        <v>1502</v>
       </c>
       <c r="F309" t="s">
         <v>1391</v>
@@ -16365,7 +16425,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>464</v>
       </c>
@@ -16377,7 +16437,7 @@
         <v>7EDC078C</v>
       </c>
       <c r="E310" t="s">
-        <v>1517</v>
+        <v>1506</v>
       </c>
       <c r="F310" t="s">
         <v>1393</v>
@@ -16398,7 +16458,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>469</v>
       </c>
@@ -16410,7 +16470,7 @@
         <v>B8DC078C</v>
       </c>
       <c r="E311" t="s">
-        <v>1516</v>
+        <v>1505</v>
       </c>
       <c r="F311" t="s">
         <v>1394</v>
@@ -16431,7 +16491,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>766</v>
       </c>
@@ -16443,7 +16503,7 @@
         <v>205F078C</v>
       </c>
       <c r="E312" t="s">
-        <v>1521</v>
+        <v>1510</v>
       </c>
       <c r="F312" t="s">
         <v>1395</v>
@@ -16464,7 +16524,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1210</v>
       </c>
@@ -16476,7 +16536,7 @@
         <v>9C39178C</v>
       </c>
       <c r="E313" t="s">
-        <v>1522</v>
+        <v>1511</v>
       </c>
       <c r="F313" t="s">
         <v>1396</v>
@@ -16497,7 +16557,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1211</v>
       </c>
@@ -16509,7 +16569,7 @@
         <v>E83D178C</v>
       </c>
       <c r="E314" t="s">
-        <v>1512</v>
+        <v>1501</v>
       </c>
       <c r="F314" t="s">
         <v>1397</v>
@@ -16530,10 +16590,10 @@
         <v>63</v>
       </c>
       <c r="L314" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1212</v>
       </c>
@@ -16545,7 +16605,7 @@
         <v>EC40178C</v>
       </c>
       <c r="E315" t="s">
-        <v>1602</v>
+        <v>1591</v>
       </c>
       <c r="F315" t="s">
         <v>1025</v>
@@ -16566,7 +16626,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>363</v>
       </c>
@@ -16599,7 +16659,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>255</v>
       </c>
@@ -16635,7 +16695,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>516</v>
       </c>
@@ -16671,7 +16731,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1312</v>
       </c>
@@ -16707,7 +16767,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1275</v>
       </c>
@@ -16743,7 +16803,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1338</v>
       </c>
@@ -16779,7 +16839,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>50</v>
       </c>
@@ -16815,7 +16875,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1340</v>
       </c>
@@ -16851,7 +16911,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>557</v>
       </c>
@@ -16884,7 +16944,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>725</v>
       </c>
@@ -16920,7 +16980,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>727</v>
       </c>
@@ -16956,7 +17016,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>730</v>
       </c>
@@ -16989,7 +17049,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>731</v>
       </c>
@@ -17025,7 +17085,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>734</v>
       </c>
@@ -17061,7 +17121,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>739</v>
       </c>
@@ -17097,7 +17157,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>742</v>
       </c>
@@ -17133,9 +17193,9 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1507</v>
+        <v>1496</v>
       </c>
       <c r="B332" t="s">
         <v>744</v>
@@ -17169,7 +17229,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>558</v>
       </c>
@@ -17205,7 +17265,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>746</v>
       </c>
@@ -17238,7 +17298,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>559</v>
       </c>
@@ -17271,7 +17331,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>560</v>
       </c>
@@ -17304,7 +17364,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>578</v>
       </c>
@@ -17337,7 +17397,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>581</v>
       </c>
@@ -17370,7 +17430,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>704</v>
       </c>
@@ -17406,7 +17466,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>903</v>
       </c>
@@ -17439,7 +17499,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>906</v>
       </c>
@@ -17472,7 +17532,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>907</v>
       </c>
@@ -17484,10 +17544,10 @@
         <v>BAAB048C</v>
       </c>
       <c r="E342" t="s">
-        <v>1549</v>
+        <v>1538</v>
       </c>
       <c r="F342" t="s">
-        <v>1523</v>
+        <v>1512</v>
       </c>
       <c r="G342" t="str">
         <f t="shared" si="27"/>
@@ -17505,10 +17565,10 @@
         <v>63</v>
       </c>
       <c r="L342" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1383</v>
       </c>
@@ -17520,10 +17580,10 @@
         <v>24500E8C</v>
       </c>
       <c r="E343" t="s">
-        <v>1548</v>
+        <v>1537</v>
       </c>
       <c r="F343" t="s">
-        <v>1524</v>
+        <v>1513</v>
       </c>
       <c r="G343" t="str">
         <f t="shared" si="27"/>
@@ -17541,7 +17601,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1404</v>
       </c>
@@ -17553,10 +17613,10 @@
         <v>A096068C</v>
       </c>
       <c r="E344" t="s">
-        <v>1508</v>
+        <v>1497</v>
       </c>
       <c r="F344" t="s">
-        <v>1525</v>
+        <v>1514</v>
       </c>
       <c r="G344" t="str">
         <f t="shared" si="27"/>
@@ -17574,7 +17634,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1417</v>
       </c>
@@ -17586,10 +17646,10 @@
         <v>CE25608C</v>
       </c>
       <c r="E345" t="s">
-        <v>1604</v>
+        <v>1593</v>
       </c>
       <c r="F345" t="s">
-        <v>1553</v>
+        <v>1542</v>
       </c>
       <c r="G345" t="str">
         <f t="shared" ref="G345:G394" si="28">VLOOKUP(E345,$A:$C,2,FALSE)</f>
@@ -17604,22 +17664,22 @@
         <v>E0AF0B8C</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1513</v>
+        <v>1502</v>
       </c>
       <c r="B346" t="s">
-        <v>1514</v>
+        <v>1503</v>
       </c>
       <c r="C346" t="str">
         <f t="shared" si="24"/>
         <v>50CE758C</v>
       </c>
       <c r="E346" t="s">
-        <v>1603</v>
+        <v>1592</v>
       </c>
       <c r="F346" t="s">
-        <v>1554</v>
+        <v>1543</v>
       </c>
       <c r="G346" t="str">
         <f t="shared" si="28"/>
@@ -17634,22 +17694,22 @@
         <v>20EA0B8C</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1517</v>
+        <v>1506</v>
       </c>
       <c r="B347" t="s">
-        <v>1515</v>
+        <v>1504</v>
       </c>
       <c r="C347" t="str">
         <f t="shared" si="24"/>
         <v>A8EB748C</v>
       </c>
       <c r="E347" t="s">
-        <v>1642</v>
+        <v>1631</v>
       </c>
       <c r="F347" t="s">
-        <v>1555</v>
+        <v>1544</v>
       </c>
       <c r="G347" t="str">
         <f t="shared" si="28"/>
@@ -17664,22 +17724,22 @@
         <v>A437518C</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1516</v>
+        <v>1505</v>
       </c>
       <c r="B348" t="s">
-        <v>1518</v>
+        <v>1507</v>
       </c>
       <c r="C348" t="str">
         <f t="shared" si="24"/>
         <v>ACAE758C</v>
       </c>
       <c r="E348" t="s">
-        <v>1643</v>
+        <v>1632</v>
       </c>
       <c r="F348" t="s">
-        <v>1556</v>
+        <v>1545</v>
       </c>
       <c r="G348" t="str">
         <f t="shared" si="28"/>
@@ -17694,22 +17754,22 @@
         <v>E86C798C</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1521</v>
+        <v>1510</v>
       </c>
       <c r="B349" t="s">
-        <v>1520</v>
+        <v>1509</v>
       </c>
       <c r="C349" t="str">
         <f t="shared" si="24"/>
         <v>A8ED748C</v>
       </c>
       <c r="E349" t="s">
-        <v>1608</v>
+        <v>1597</v>
       </c>
       <c r="F349" t="s">
-        <v>1557</v>
+        <v>1546</v>
       </c>
       <c r="G349" t="str">
         <f t="shared" si="28"/>
@@ -17724,22 +17784,22 @@
         <v>A14E6A8C</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1522</v>
+        <v>1511</v>
       </c>
       <c r="B350" t="s">
-        <v>1519</v>
+        <v>1508</v>
       </c>
       <c r="C350" t="str">
         <f t="shared" si="24"/>
         <v>AEAE758C</v>
       </c>
       <c r="E350" t="s">
-        <v>1605</v>
+        <v>1594</v>
       </c>
       <c r="F350" t="s">
-        <v>1558</v>
+        <v>1547</v>
       </c>
       <c r="G350" t="str">
         <f t="shared" si="28"/>
@@ -17754,9 +17814,9 @@
         <v>9C4E6A8C</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1512</v>
+        <v>1501</v>
       </c>
       <c r="B351" t="s">
         <v>1414</v>
@@ -17766,10 +17826,10 @@
         <v>FC865B8C</v>
       </c>
       <c r="E351" t="s">
-        <v>1606</v>
+        <v>1595</v>
       </c>
       <c r="F351" t="s">
-        <v>1559</v>
+        <v>1548</v>
       </c>
       <c r="G351" t="str">
         <f t="shared" si="28"/>
@@ -17784,9 +17844,9 @@
         <v>AC4E6A8C</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1602</v>
+        <v>1591</v>
       </c>
       <c r="B352" t="s">
         <v>1054</v>
@@ -17796,10 +17856,10 @@
         <v>BC875B8C</v>
       </c>
       <c r="E352" t="s">
-        <v>1607</v>
+        <v>1596</v>
       </c>
       <c r="F352" t="s">
-        <v>1560</v>
+        <v>1549</v>
       </c>
       <c r="G352" t="str">
         <f t="shared" si="28"/>
@@ -17814,7 +17874,7 @@
         <v>60A6048C</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1056</v>
       </c>
@@ -17826,10 +17886,10 @@
         <v>50DE5F8C</v>
       </c>
       <c r="E353" t="s">
-        <v>1609</v>
+        <v>1598</v>
       </c>
       <c r="F353" t="s">
-        <v>1561</v>
+        <v>1550</v>
       </c>
       <c r="G353" t="str">
         <f t="shared" si="28"/>
@@ -17844,7 +17904,7 @@
         <v>60E20B8C</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1157</v>
       </c>
@@ -17856,10 +17916,10 @@
         <v>58CC048C</v>
       </c>
       <c r="E354" t="s">
-        <v>1644</v>
+        <v>1633</v>
       </c>
       <c r="F354" t="s">
-        <v>1562</v>
+        <v>1551</v>
       </c>
       <c r="G354" t="str">
         <f t="shared" si="28"/>
@@ -17874,7 +17934,7 @@
         <v>1CF3508C</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1160</v>
       </c>
@@ -17886,10 +17946,10 @@
         <v>68C9048C</v>
       </c>
       <c r="E355" t="s">
-        <v>1610</v>
+        <v>1599</v>
       </c>
       <c r="F355" t="s">
-        <v>1563</v>
+        <v>1552</v>
       </c>
       <c r="G355" t="str">
         <f t="shared" si="28"/>
@@ -17904,7 +17964,7 @@
         <v>34FF0B8C</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1172</v>
       </c>
@@ -17916,10 +17976,10 @@
         <v>E0BB038C</v>
       </c>
       <c r="E356" t="s">
-        <v>1611</v>
+        <v>1600</v>
       </c>
       <c r="F356" t="s">
-        <v>1564</v>
+        <v>1553</v>
       </c>
       <c r="G356" t="str">
         <f t="shared" si="28"/>
@@ -17934,7 +17994,7 @@
         <v>C0FB0B8C</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1188</v>
       </c>
@@ -17946,10 +18006,10 @@
         <v>EE68028C</v>
       </c>
       <c r="E357" t="s">
-        <v>1612</v>
+        <v>1601</v>
       </c>
       <c r="F357" t="s">
-        <v>1565</v>
+        <v>1554</v>
       </c>
       <c r="G357" t="str">
         <f t="shared" si="28"/>
@@ -17965,7 +18025,7 @@
       </c>
       <c r="J357" s="1"/>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1191</v>
       </c>
@@ -17977,10 +18037,10 @@
         <v>D468028C</v>
       </c>
       <c r="E358" t="s">
-        <v>1613</v>
+        <v>1602</v>
       </c>
       <c r="F358" t="s">
-        <v>1566</v>
+        <v>1555</v>
       </c>
       <c r="G358" t="str">
         <f t="shared" si="28"/>
@@ -17995,7 +18055,7 @@
         <v>C078018C</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1199</v>
       </c>
@@ -18007,10 +18067,10 @@
         <v>E0AF068C</v>
       </c>
       <c r="E359" t="s">
-        <v>1615</v>
+        <v>1604</v>
       </c>
       <c r="F359" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
       <c r="G359" t="str">
         <f t="shared" si="28"/>
@@ -18025,7 +18085,7 @@
         <v>E00A0C8C</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1207</v>
       </c>
@@ -18037,10 +18097,10 @@
         <v>56E8038C</v>
       </c>
       <c r="E360" t="s">
-        <v>1614</v>
+        <v>1603</v>
       </c>
       <c r="F360" t="s">
-        <v>1568</v>
+        <v>1557</v>
       </c>
       <c r="G360" t="str">
         <f t="shared" si="28"/>
@@ -18055,7 +18115,7 @@
         <v>5EF70B8C</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1208</v>
       </c>
@@ -18067,10 +18127,10 @@
         <v>E4F75B8C</v>
       </c>
       <c r="E361" t="s">
-        <v>1616</v>
+        <v>1605</v>
       </c>
       <c r="F361" t="s">
-        <v>1569</v>
+        <v>1558</v>
       </c>
       <c r="G361" t="str">
         <f t="shared" si="28"/>
@@ -18085,7 +18145,7 @@
         <v>A94E6A8C</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1209</v>
       </c>
@@ -18097,10 +18157,10 @@
         <v>CAF5028C</v>
       </c>
       <c r="E362" t="s">
-        <v>1617</v>
+        <v>1606</v>
       </c>
       <c r="F362" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="G362" t="str">
         <f t="shared" si="28"/>
@@ -18115,7 +18175,7 @@
         <v>42E0018C</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1328</v>
       </c>
@@ -18127,10 +18187,10 @@
         <v>409A068C</v>
       </c>
       <c r="E363" t="s">
-        <v>1650</v>
+        <v>1639</v>
       </c>
       <c r="F363" t="s">
-        <v>1571</v>
+        <v>1560</v>
       </c>
       <c r="G363" t="str">
         <f t="shared" si="28"/>
@@ -18145,10 +18205,10 @@
         <v>AA4E6A8C</v>
       </c>
       <c r="L363" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1036</v>
       </c>
@@ -18160,10 +18220,10 @@
         <v>DE6D048C</v>
       </c>
       <c r="E364" t="s">
-        <v>1618</v>
+        <v>1607</v>
       </c>
       <c r="F364" t="s">
-        <v>1572</v>
+        <v>1561</v>
       </c>
       <c r="G364" t="str">
         <f t="shared" si="28"/>
@@ -18178,7 +18238,7 @@
         <v>A04E6A8C</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1037</v>
       </c>
@@ -18190,10 +18250,10 @@
         <v>E66D048C</v>
       </c>
       <c r="E365" t="s">
-        <v>1621</v>
+        <v>1610</v>
       </c>
       <c r="F365" t="s">
-        <v>1573</v>
+        <v>1562</v>
       </c>
       <c r="G365" t="str">
         <f t="shared" si="28"/>
@@ -18208,7 +18268,7 @@
         <v>A24E6A8C</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1045</v>
       </c>
@@ -18220,10 +18280,10 @@
         <v>D665048C</v>
       </c>
       <c r="E366" t="s">
-        <v>1649</v>
+        <v>1638</v>
       </c>
       <c r="F366" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
       <c r="G366" t="str">
         <f t="shared" si="28"/>
@@ -18239,7 +18299,7 @@
       </c>
       <c r="J366" s="1"/>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1038</v>
       </c>
@@ -18251,10 +18311,10 @@
         <v>DE65048C</v>
       </c>
       <c r="E367" t="s">
-        <v>1632</v>
+        <v>1621</v>
       </c>
       <c r="F367" t="s">
-        <v>1575</v>
+        <v>1564</v>
       </c>
       <c r="G367" t="str">
         <f t="shared" si="28"/>
@@ -18269,7 +18329,7 @@
         <v>80E30B8C</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1048</v>
       </c>
@@ -18281,10 +18341,10 @@
         <v>46E1038C</v>
       </c>
       <c r="E368" t="s">
-        <v>1633</v>
+        <v>1622</v>
       </c>
       <c r="F368" t="s">
-        <v>1576</v>
+        <v>1565</v>
       </c>
       <c r="G368" t="str">
         <f t="shared" si="28"/>
@@ -18299,7 +18359,7 @@
         <v>EAF60B8C</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1051</v>
       </c>
@@ -18311,10 +18371,10 @@
         <v>40DE038C</v>
       </c>
       <c r="E369" t="s">
-        <v>1634</v>
+        <v>1623</v>
       </c>
       <c r="F369" t="s">
-        <v>1577</v>
+        <v>1566</v>
       </c>
       <c r="G369" t="str">
         <f t="shared" si="28"/>
@@ -18329,7 +18389,7 @@
         <v>8C0B0C8C</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>684</v>
       </c>
@@ -18341,10 +18401,10 @@
         <v>3CCE758C</v>
       </c>
       <c r="E370" t="s">
-        <v>1626</v>
+        <v>1615</v>
       </c>
       <c r="F370" t="s">
-        <v>1578</v>
+        <v>1567</v>
       </c>
       <c r="G370" t="str">
         <f t="shared" si="28"/>
@@ -18359,7 +18419,7 @@
         <v>B04E6A8C</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>687</v>
       </c>
@@ -18371,10 +18431,10 @@
         <v>40CE758C</v>
       </c>
       <c r="E371" t="s">
-        <v>1623</v>
+        <v>1612</v>
       </c>
       <c r="F371" t="s">
-        <v>1579</v>
+        <v>1568</v>
       </c>
       <c r="G371" t="str">
         <f t="shared" si="28"/>
@@ -18389,7 +18449,7 @@
         <v>50E40B8C</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>688</v>
       </c>
@@ -18401,10 +18461,10 @@
         <v>44CE758C</v>
       </c>
       <c r="E372" t="s">
-        <v>1625</v>
+        <v>1614</v>
       </c>
       <c r="F372" t="s">
-        <v>1580</v>
+        <v>1569</v>
       </c>
       <c r="G372" t="str">
         <f t="shared" si="28"/>
@@ -18419,7 +18479,7 @@
         <v>C0E30B8C</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1292</v>
       </c>
@@ -18431,10 +18491,10 @@
         <v>8A16078C</v>
       </c>
       <c r="E373" t="s">
-        <v>1627</v>
+        <v>1616</v>
       </c>
       <c r="F373" t="s">
-        <v>1581</v>
+        <v>1570</v>
       </c>
       <c r="G373" t="str">
         <f t="shared" si="28"/>
@@ -18449,7 +18509,7 @@
         <v>9E6A068C</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1227</v>
       </c>
@@ -18461,10 +18521,10 @@
         <v>AC62188C</v>
       </c>
       <c r="E374" t="s">
-        <v>1624</v>
+        <v>1613</v>
       </c>
       <c r="F374" t="s">
-        <v>1582</v>
+        <v>1571</v>
       </c>
       <c r="G374" t="str">
         <f t="shared" si="28"/>
@@ -18479,7 +18539,7 @@
         <v>A84E6A8C</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1225</v>
       </c>
@@ -18491,10 +18551,10 @@
         <v>305F188C</v>
       </c>
       <c r="E375" t="s">
-        <v>1620</v>
+        <v>1609</v>
       </c>
       <c r="F375" t="s">
-        <v>1583</v>
+        <v>1572</v>
       </c>
       <c r="G375" t="str">
         <f t="shared" si="28"/>
@@ -18509,7 +18569,7 @@
         <v>B8F50B8C</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1226</v>
       </c>
@@ -18521,10 +18581,10 @@
         <v>D860188C</v>
       </c>
       <c r="E376" t="s">
-        <v>1622</v>
+        <v>1611</v>
       </c>
       <c r="F376" t="s">
-        <v>1584</v>
+        <v>1573</v>
       </c>
       <c r="G376" t="str">
         <f t="shared" si="28"/>
@@ -18539,7 +18599,7 @@
         <v>40070C8C</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>195</v>
       </c>
@@ -18551,10 +18611,10 @@
         <v>E06E048C</v>
       </c>
       <c r="E377" t="s">
-        <v>1619</v>
+        <v>1608</v>
       </c>
       <c r="F377" t="s">
-        <v>1585</v>
+        <v>1574</v>
       </c>
       <c r="G377" t="str">
         <f t="shared" si="28"/>
@@ -18569,9 +18629,9 @@
         <v>00E50B8C</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="B378" t="s">
         <v>273</v>
@@ -18581,10 +18641,10 @@
         <v>209F078C</v>
       </c>
       <c r="E378" t="s">
-        <v>1629</v>
+        <v>1618</v>
       </c>
       <c r="F378" t="s">
-        <v>1586</v>
+        <v>1575</v>
       </c>
       <c r="G378" t="str">
         <f t="shared" si="28"/>
@@ -18599,22 +18659,22 @@
         <v>60F60B8C</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1461</v>
+        <v>1451</v>
       </c>
       <c r="B379" t="s">
-        <v>1462</v>
+        <v>1452</v>
       </c>
       <c r="C379" t="str">
         <f t="shared" si="31"/>
         <v>88845B8C</v>
       </c>
       <c r="E379" t="s">
-        <v>1631</v>
+        <v>1620</v>
       </c>
       <c r="F379" t="s">
-        <v>1587</v>
+        <v>1576</v>
       </c>
       <c r="G379" t="str">
         <f t="shared" si="28"/>
@@ -18629,22 +18689,22 @@
         <v>16A6048C</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1463</v>
+        <v>1453</v>
       </c>
       <c r="B380" t="s">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="C380" t="str">
         <f t="shared" si="31"/>
         <v>24845B8C</v>
       </c>
       <c r="E380" t="s">
-        <v>1645</v>
+        <v>1634</v>
       </c>
       <c r="F380" t="s">
-        <v>1588</v>
+        <v>1577</v>
       </c>
       <c r="G380" t="str">
         <f t="shared" si="28"/>
@@ -18659,22 +18719,22 @@
         <v>ACF60B8C</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
       <c r="B381" t="s">
-        <v>1478</v>
+        <v>1468</v>
       </c>
       <c r="C381" t="str">
         <f t="shared" si="31"/>
         <v>001C078C</v>
       </c>
       <c r="E381" t="s">
-        <v>1630</v>
+        <v>1619</v>
       </c>
       <c r="F381" t="s">
-        <v>1589</v>
+        <v>1578</v>
       </c>
       <c r="G381" t="str">
         <f t="shared" si="28"/>
@@ -18689,22 +18749,22 @@
         <v>E0F80B8C</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
       <c r="B382" t="s">
-        <v>1466</v>
+        <v>1456</v>
       </c>
       <c r="C382" t="str">
         <f t="shared" si="31"/>
         <v>B2F95A8C</v>
       </c>
       <c r="E382" t="s">
-        <v>1710</v>
+        <v>1699</v>
       </c>
       <c r="F382" t="s">
-        <v>1590</v>
+        <v>1579</v>
       </c>
       <c r="G382" t="str">
         <f t="shared" si="28"/>
@@ -18720,22 +18780,22 @@
       </c>
       <c r="J382" s="1"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1468</v>
+        <v>1458</v>
       </c>
       <c r="B383" t="s">
-        <v>1467</v>
+        <v>1457</v>
       </c>
       <c r="C383" t="str">
         <f t="shared" si="31"/>
         <v>F07C5B8C</v>
       </c>
       <c r="E383" t="s">
-        <v>1646</v>
+        <v>1635</v>
       </c>
       <c r="F383" t="s">
-        <v>1591</v>
+        <v>1580</v>
       </c>
       <c r="G383" t="str">
         <f t="shared" si="28"/>
@@ -18750,22 +18810,22 @@
         <v>20FB0B8C</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1471</v>
+        <v>1461</v>
       </c>
       <c r="B384" t="s">
-        <v>1472</v>
+        <v>1462</v>
       </c>
       <c r="C384" t="str">
         <f t="shared" si="31"/>
         <v>6A1B078C</v>
       </c>
       <c r="E384" t="s">
-        <v>1647</v>
+        <v>1636</v>
       </c>
       <c r="F384" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
       <c r="G384" t="str">
         <f t="shared" si="28"/>
@@ -18780,22 +18840,22 @@
         <v>6003518C</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1473</v>
+        <v>1463</v>
       </c>
       <c r="B385" t="s">
-        <v>1474</v>
+        <v>1464</v>
       </c>
       <c r="C385" t="str">
         <f t="shared" si="31"/>
         <v>781B078C</v>
       </c>
       <c r="E385" t="s">
-        <v>1648</v>
+        <v>1637</v>
       </c>
       <c r="F385" t="s">
-        <v>1593</v>
+        <v>1582</v>
       </c>
       <c r="G385" t="str">
         <f t="shared" si="28"/>
@@ -18810,22 +18870,22 @@
         <v>582C518C</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1475</v>
+        <v>1465</v>
       </c>
       <c r="B386" t="s">
-        <v>1465</v>
+        <v>1455</v>
       </c>
       <c r="C386" t="str">
         <f t="shared" si="31"/>
         <v>881B078C</v>
       </c>
       <c r="E386" t="s">
-        <v>1637</v>
+        <v>1626</v>
       </c>
       <c r="F386" t="s">
-        <v>1594</v>
+        <v>1583</v>
       </c>
       <c r="G386" t="str">
         <f t="shared" si="28"/>
@@ -18840,25 +18900,25 @@
         <v>E2F60B8C</v>
       </c>
       <c r="L386" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1476</v>
+        <v>1466</v>
       </c>
       <c r="B387" t="s">
-        <v>1477</v>
+        <v>1467</v>
       </c>
       <c r="C387" t="str">
         <f t="shared" si="31"/>
         <v>C01B078C</v>
       </c>
       <c r="E387" t="s">
-        <v>1636</v>
+        <v>1625</v>
       </c>
       <c r="F387" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="G387" t="str">
         <f t="shared" si="28"/>
@@ -18873,22 +18933,22 @@
         <v>E0FC0B8C</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1482</v>
+        <v>1472</v>
       </c>
       <c r="B388" t="s">
-        <v>1481</v>
+        <v>1471</v>
       </c>
       <c r="C388" t="str">
         <f t="shared" si="31"/>
         <v>809D018C</v>
       </c>
       <c r="E388" t="s">
-        <v>1712</v>
+        <v>1701</v>
       </c>
       <c r="F388" t="s">
-        <v>1596</v>
+        <v>1585</v>
       </c>
       <c r="G388" t="str">
         <f t="shared" si="28"/>
@@ -18903,22 +18963,22 @@
         <v>B44E6A8C</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1508</v>
+        <v>1497</v>
       </c>
       <c r="B389" t="s">
-        <v>1509</v>
+        <v>1498</v>
       </c>
       <c r="C389" t="str">
         <f t="shared" si="31"/>
         <v>00DA038C</v>
       </c>
       <c r="E389" t="s">
-        <v>1641</v>
+        <v>1630</v>
       </c>
       <c r="F389" t="s">
-        <v>1597</v>
+        <v>1586</v>
       </c>
       <c r="G389" t="str">
         <f t="shared" si="28"/>
@@ -18933,22 +18993,22 @@
         <v>3EF40B8C</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1510</v>
+        <v>1499</v>
       </c>
       <c r="B390" t="s">
-        <v>1511</v>
+        <v>1500</v>
       </c>
       <c r="C390" t="str">
         <f t="shared" si="31"/>
         <v>F69B068C</v>
       </c>
       <c r="E390" t="s">
-        <v>1639</v>
+        <v>1628</v>
       </c>
       <c r="F390" t="s">
-        <v>1598</v>
+        <v>1587</v>
       </c>
       <c r="G390" t="str">
         <f t="shared" si="28"/>
@@ -18963,22 +19023,22 @@
         <v>FAE50B8C</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1549</v>
+        <v>1538</v>
       </c>
       <c r="B391" t="s">
-        <v>1526</v>
+        <v>1515</v>
       </c>
       <c r="C391" t="str">
         <f t="shared" si="31"/>
         <v>CE9F068C</v>
       </c>
       <c r="E391" t="s">
-        <v>1640</v>
+        <v>1629</v>
       </c>
       <c r="F391" t="s">
-        <v>1599</v>
+        <v>1588</v>
       </c>
       <c r="G391" t="str">
         <f t="shared" si="28"/>
@@ -18993,22 +19053,22 @@
         <v>80E00B8C</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1508</v>
+        <v>1497</v>
       </c>
       <c r="B392" t="s">
-        <v>1509</v>
+        <v>1498</v>
       </c>
       <c r="C392" t="str">
         <f t="shared" si="31"/>
         <v>00DA038C</v>
       </c>
       <c r="E392" t="s">
-        <v>1704</v>
+        <v>1693</v>
       </c>
       <c r="F392" t="s">
-        <v>1600</v>
+        <v>1589</v>
       </c>
       <c r="G392" t="str">
         <f t="shared" si="28"/>
@@ -19023,22 +19083,22 @@
         <v>26A7048C</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1548</v>
+        <v>1537</v>
       </c>
       <c r="B393" t="s">
-        <v>1527</v>
+        <v>1516</v>
       </c>
       <c r="C393" t="str">
         <f t="shared" si="31"/>
         <v>22B0088C</v>
       </c>
       <c r="E393" t="s">
-        <v>1628</v>
+        <v>1617</v>
       </c>
       <c r="F393" t="s">
-        <v>1601</v>
+        <v>1590</v>
       </c>
       <c r="G393" t="str">
         <f t="shared" si="28"/>
@@ -19053,22 +19113,22 @@
         <v>A44E6A8C</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1604</v>
+        <v>1593</v>
       </c>
       <c r="B394" t="s">
-        <v>1651</v>
+        <v>1640</v>
       </c>
       <c r="C394" t="str">
         <f t="shared" si="31"/>
         <v>E0AF0B8C</v>
       </c>
       <c r="E394" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="F394" t="s">
-        <v>1635</v>
+        <v>1624</v>
       </c>
       <c r="G394" t="str">
         <f t="shared" si="28"/>
@@ -19083,34 +19143,34 @@
         <v>E8638A8C</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1603</v>
+        <v>1592</v>
       </c>
       <c r="B395" t="s">
-        <v>1652</v>
+        <v>1641</v>
       </c>
       <c r="C395" t="str">
         <f t="shared" si="31"/>
         <v>20EA0B8C</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1605</v>
+        <v>1594</v>
       </c>
       <c r="B396" t="s">
-        <v>1653</v>
+        <v>1642</v>
       </c>
       <c r="C396" t="str">
         <f t="shared" si="31"/>
         <v>9C4E6A8C</v>
       </c>
       <c r="E396" t="s">
-        <v>1717</v>
+        <v>1706</v>
       </c>
       <c r="F396" t="s">
-        <v>1716</v>
+        <v>1705</v>
       </c>
       <c r="G396" t="str">
         <f t="shared" ref="G396" si="32">VLOOKUP(E396,$A:$C,2,FALSE)</f>
@@ -19128,25 +19188,25 @@
         <v>1058</v>
       </c>
       <c r="L396" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1606</v>
+        <v>1595</v>
       </c>
       <c r="B397" t="s">
-        <v>1654</v>
+        <v>1643</v>
       </c>
       <c r="C397" t="str">
         <f t="shared" si="31"/>
         <v>AC4E6A8C</v>
       </c>
       <c r="E397" t="s">
-        <v>1739</v>
+        <v>1728</v>
       </c>
       <c r="F397" t="s">
-        <v>1718</v>
+        <v>1707</v>
       </c>
       <c r="G397" t="str">
         <f t="shared" ref="G397:G416" si="35">VLOOKUP(E397,$A:$C,2,FALSE)</f>
@@ -19164,22 +19224,22 @@
         <v>530</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1609</v>
+        <v>1598</v>
       </c>
       <c r="B398" t="s">
-        <v>1655</v>
+        <v>1644</v>
       </c>
       <c r="C398" t="str">
         <f t="shared" si="31"/>
         <v>60E20B8C</v>
       </c>
       <c r="E398" t="s">
-        <v>1738</v>
+        <v>1727</v>
       </c>
       <c r="F398" t="s">
-        <v>1719</v>
+        <v>1708</v>
       </c>
       <c r="G398" t="str">
         <f t="shared" si="35"/>
@@ -19197,22 +19257,22 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1611</v>
+        <v>1600</v>
       </c>
       <c r="B399" t="s">
-        <v>1656</v>
+        <v>1645</v>
       </c>
       <c r="C399" t="str">
         <f t="shared" si="31"/>
         <v>C0FB0B8C</v>
       </c>
       <c r="E399" t="s">
-        <v>1740</v>
+        <v>1729</v>
       </c>
       <c r="F399" t="s">
-        <v>1720</v>
+        <v>1709</v>
       </c>
       <c r="G399" t="str">
         <f t="shared" si="35"/>
@@ -19230,22 +19290,22 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1612</v>
+        <v>1601</v>
       </c>
       <c r="B400" t="s">
-        <v>1657</v>
+        <v>1646</v>
       </c>
       <c r="C400" t="str">
         <f t="shared" si="31"/>
         <v>DEF60B8C</v>
       </c>
       <c r="E400" t="s">
-        <v>1741</v>
+        <v>1730</v>
       </c>
       <c r="F400" t="s">
-        <v>1721</v>
+        <v>1710</v>
       </c>
       <c r="G400" t="str">
         <f t="shared" si="35"/>
@@ -19263,22 +19323,22 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1631</v>
+        <v>1620</v>
       </c>
       <c r="B401" t="s">
-        <v>1658</v>
+        <v>1647</v>
       </c>
       <c r="C401" t="str">
         <f t="shared" si="31"/>
         <v>16A6048C</v>
       </c>
       <c r="E401" t="s">
-        <v>1742</v>
+        <v>1731</v>
       </c>
       <c r="F401" t="s">
-        <v>1722</v>
+        <v>1711</v>
       </c>
       <c r="G401" t="str">
         <f t="shared" si="35"/>
@@ -19296,22 +19356,22 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1616</v>
+        <v>1605</v>
       </c>
       <c r="B402" t="s">
-        <v>1659</v>
+        <v>1648</v>
       </c>
       <c r="C402" t="str">
         <f t="shared" si="31"/>
         <v>A94E6A8C</v>
       </c>
       <c r="E402" t="s">
-        <v>1743</v>
+        <v>1732</v>
       </c>
       <c r="F402" t="s">
-        <v>1723</v>
+        <v>1712</v>
       </c>
       <c r="G402" t="str">
         <f t="shared" si="35"/>
@@ -19329,22 +19389,22 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1617</v>
+        <v>1606</v>
       </c>
       <c r="B403" t="s">
-        <v>1660</v>
+        <v>1649</v>
       </c>
       <c r="C403" t="str">
         <f t="shared" si="31"/>
         <v>42E0018C</v>
       </c>
       <c r="E403" t="s">
-        <v>1744</v>
+        <v>1733</v>
       </c>
       <c r="F403" t="s">
-        <v>1724</v>
+        <v>1713</v>
       </c>
       <c r="G403" t="str">
         <f t="shared" si="35"/>
@@ -19362,22 +19422,22 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1613</v>
+        <v>1602</v>
       </c>
       <c r="B404" t="s">
-        <v>1662</v>
+        <v>1651</v>
       </c>
       <c r="C404" t="str">
         <f t="shared" si="31"/>
         <v>C078018C</v>
       </c>
       <c r="E404" t="s">
-        <v>1745</v>
+        <v>1734</v>
       </c>
       <c r="F404" t="s">
-        <v>1725</v>
+        <v>1714</v>
       </c>
       <c r="G404" t="str">
         <f t="shared" si="35"/>
@@ -19395,22 +19455,22 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1640</v>
+        <v>1629</v>
       </c>
       <c r="B405" t="s">
-        <v>1661</v>
+        <v>1650</v>
       </c>
       <c r="C405" t="str">
         <f t="shared" si="31"/>
         <v>80E00B8C</v>
       </c>
       <c r="E405" t="s">
-        <v>1746</v>
+        <v>1735</v>
       </c>
       <c r="F405" t="s">
-        <v>1726</v>
+        <v>1715</v>
       </c>
       <c r="G405" t="str">
         <f t="shared" si="35"/>
@@ -19428,22 +19488,22 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1663</v>
+        <v>1652</v>
       </c>
       <c r="B406" t="s">
-        <v>1664</v>
+        <v>1653</v>
       </c>
       <c r="C406" t="str">
         <f t="shared" si="31"/>
         <v>6CA7048C</v>
       </c>
       <c r="E406" t="s">
-        <v>1747</v>
+        <v>1736</v>
       </c>
       <c r="F406" t="s">
-        <v>1727</v>
+        <v>1716</v>
       </c>
       <c r="G406" t="str">
         <f t="shared" si="35"/>
@@ -19461,22 +19521,22 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1622</v>
+        <v>1611</v>
       </c>
       <c r="B407" t="s">
-        <v>1665</v>
+        <v>1654</v>
       </c>
       <c r="C407" t="str">
         <f t="shared" si="31"/>
         <v>40070C8C</v>
       </c>
       <c r="E407" t="s">
-        <v>1748</v>
+        <v>1737</v>
       </c>
       <c r="F407" t="s">
-        <v>1728</v>
+        <v>1717</v>
       </c>
       <c r="G407" t="str">
         <f t="shared" si="35"/>
@@ -19494,22 +19554,22 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1618</v>
+        <v>1607</v>
       </c>
       <c r="B408" t="s">
-        <v>1666</v>
+        <v>1655</v>
       </c>
       <c r="C408" t="str">
         <f t="shared" si="31"/>
         <v>A04E6A8C</v>
       </c>
       <c r="E408" t="s">
-        <v>1749</v>
+        <v>1738</v>
       </c>
       <c r="F408" t="s">
-        <v>1729</v>
+        <v>1718</v>
       </c>
       <c r="G408" t="str">
         <f t="shared" si="35"/>
@@ -19527,22 +19587,22 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1608</v>
+        <v>1597</v>
       </c>
       <c r="B409" t="s">
-        <v>1667</v>
+        <v>1656</v>
       </c>
       <c r="C409" t="str">
         <f t="shared" si="31"/>
         <v>A14E6A8C</v>
       </c>
       <c r="E409" t="s">
-        <v>1750</v>
+        <v>1739</v>
       </c>
       <c r="F409" t="s">
-        <v>1730</v>
+        <v>1719</v>
       </c>
       <c r="G409" t="str">
         <f t="shared" si="35"/>
@@ -19560,22 +19620,22 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1621</v>
+        <v>1610</v>
       </c>
       <c r="B410" t="s">
-        <v>1668</v>
+        <v>1657</v>
       </c>
       <c r="C410" t="str">
         <f t="shared" si="31"/>
         <v>A24E6A8C</v>
       </c>
       <c r="E410" t="s">
-        <v>1751</v>
+        <v>1740</v>
       </c>
       <c r="F410" t="s">
-        <v>1731</v>
+        <v>1720</v>
       </c>
       <c r="G410" t="str">
         <f t="shared" si="35"/>
@@ -19593,22 +19653,22 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1626</v>
+        <v>1615</v>
       </c>
       <c r="B411" t="s">
-        <v>1669</v>
+        <v>1658</v>
       </c>
       <c r="C411" t="str">
         <f t="shared" si="31"/>
         <v>B04E6A8C</v>
       </c>
       <c r="E411" t="s">
-        <v>1752</v>
+        <v>1741</v>
       </c>
       <c r="F411" t="s">
-        <v>1732</v>
+        <v>1721</v>
       </c>
       <c r="G411" t="str">
         <f t="shared" si="35"/>
@@ -19626,22 +19686,22 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="B412" t="s">
-        <v>1670</v>
+        <v>1659</v>
       </c>
       <c r="C412" t="str">
         <f t="shared" si="31"/>
         <v>E8638A8C</v>
       </c>
       <c r="E412" t="s">
-        <v>1753</v>
+        <v>1742</v>
       </c>
       <c r="F412" t="s">
-        <v>1733</v>
+        <v>1722</v>
       </c>
       <c r="G412" t="str">
         <f t="shared" si="35"/>
@@ -19659,22 +19719,22 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1627</v>
+        <v>1616</v>
       </c>
       <c r="B413" t="s">
-        <v>1671</v>
+        <v>1660</v>
       </c>
       <c r="C413" t="str">
         <f t="shared" si="31"/>
         <v>9E6A068C</v>
       </c>
       <c r="E413" t="s">
-        <v>1754</v>
+        <v>1743</v>
       </c>
       <c r="F413" t="s">
-        <v>1734</v>
+        <v>1723</v>
       </c>
       <c r="G413" t="str">
         <f t="shared" si="35"/>
@@ -19692,22 +19752,22 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1624</v>
+        <v>1613</v>
       </c>
       <c r="B414" t="s">
-        <v>1672</v>
+        <v>1661</v>
       </c>
       <c r="C414" t="str">
         <f t="shared" si="31"/>
         <v>A84E6A8C</v>
       </c>
       <c r="E414" t="s">
-        <v>1755</v>
+        <v>1744</v>
       </c>
       <c r="F414" t="s">
-        <v>1735</v>
+        <v>1724</v>
       </c>
       <c r="G414" t="str">
         <f t="shared" si="35"/>
@@ -19725,22 +19785,22 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1673</v>
+        <v>1662</v>
       </c>
       <c r="B415" t="s">
-        <v>1674</v>
+        <v>1663</v>
       </c>
       <c r="C415" t="str">
         <f t="shared" si="31"/>
         <v>C0160C8C</v>
       </c>
       <c r="E415" t="s">
-        <v>1756</v>
+        <v>1745</v>
       </c>
       <c r="F415" t="s">
-        <v>1736</v>
+        <v>1725</v>
       </c>
       <c r="G415" t="str">
         <f t="shared" si="35"/>
@@ -19758,22 +19818,22 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1676</v>
+        <v>1665</v>
       </c>
       <c r="B416" t="s">
-        <v>1675</v>
+        <v>1664</v>
       </c>
       <c r="C416" t="str">
         <f t="shared" si="31"/>
         <v>80170C8C</v>
       </c>
       <c r="E416" t="s">
-        <v>1757</v>
+        <v>1746</v>
       </c>
       <c r="F416" t="s">
-        <v>1737</v>
+        <v>1726</v>
       </c>
       <c r="G416" t="str">
         <f t="shared" si="35"/>
@@ -19791,55 +19851,55 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1678</v>
+        <v>1667</v>
       </c>
       <c r="B417" t="s">
-        <v>1677</v>
+        <v>1666</v>
       </c>
       <c r="C417" t="str">
         <f t="shared" si="31"/>
         <v>9C050C8C</v>
       </c>
       <c r="E417" t="s">
-        <v>1772</v>
+        <v>1761</v>
       </c>
       <c r="F417" t="s">
-        <v>1761</v>
+        <v>1750</v>
       </c>
       <c r="G417" t="str">
-        <f t="shared" ref="G417:G427" si="38">VLOOKUP(E417,$A:$C,2,FALSE)</f>
+        <f t="shared" ref="G417:G439" si="38">VLOOKUP(E417,$A:$C,2,FALSE)</f>
         <v>8C06E870</v>
       </c>
       <c r="H417" t="str">
-        <f t="shared" ref="H417:H427" si="39">MID(F417,7,2)&amp;MID(F417,5,2)&amp;MID(F417,3,2)&amp;MID(F417,1,2)</f>
+        <f t="shared" ref="H417:H439" si="39">MID(F417,7,2)&amp;MID(F417,5,2)&amp;MID(F417,3,2)&amp;MID(F417,1,2)</f>
         <v>F0A5068C</v>
       </c>
       <c r="I417" t="str">
-        <f t="shared" ref="I417:I427" si="40">VLOOKUP(E417,$A:$C,3,FALSE)</f>
+        <f t="shared" ref="I417:I439" si="40">VLOOKUP(E417,$A:$C,3,FALSE)</f>
         <v>70E8068C</v>
       </c>
       <c r="J417" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1623</v>
+        <v>1612</v>
       </c>
       <c r="B418" t="s">
-        <v>1679</v>
+        <v>1668</v>
       </c>
       <c r="C418" t="str">
         <f t="shared" si="31"/>
         <v>50E40B8C</v>
       </c>
       <c r="E418" t="s">
-        <v>1773</v>
+        <v>1762</v>
       </c>
       <c r="F418" t="s">
-        <v>1762</v>
+        <v>1751</v>
       </c>
       <c r="G418" t="str">
         <f t="shared" si="38"/>
@@ -19857,22 +19917,22 @@
         <v>530</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1607</v>
+        <v>1596</v>
       </c>
       <c r="B419" t="s">
-        <v>1680</v>
+        <v>1669</v>
       </c>
       <c r="C419" t="str">
         <f t="shared" si="31"/>
         <v>60A6048C</v>
       </c>
       <c r="E419" t="s">
-        <v>1774</v>
+        <v>1763</v>
       </c>
       <c r="F419" t="s">
-        <v>1763</v>
+        <v>1752</v>
       </c>
       <c r="G419" t="str">
         <f t="shared" si="38"/>
@@ -19890,22 +19950,22 @@
         <v>530</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1630</v>
+        <v>1619</v>
       </c>
       <c r="B420" t="s">
-        <v>1681</v>
+        <v>1670</v>
       </c>
       <c r="C420" t="str">
         <f t="shared" si="31"/>
         <v>E0F80B8C</v>
       </c>
       <c r="E420" t="s">
-        <v>1775</v>
+        <v>1764</v>
       </c>
       <c r="F420" t="s">
-        <v>1764</v>
+        <v>1753</v>
       </c>
       <c r="G420" t="str">
         <f t="shared" si="38"/>
@@ -19923,12 +19983,12 @@
         <v>530</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1645</v>
+        <v>1634</v>
       </c>
       <c r="B421" t="s">
-        <v>1682</v>
+        <v>1671</v>
       </c>
       <c r="C421" t="str">
         <f t="shared" si="31"/>
@@ -19938,7 +19998,7 @@
         <v>1278</v>
       </c>
       <c r="F421" t="s">
-        <v>1765</v>
+        <v>1754</v>
       </c>
       <c r="G421" t="str">
         <f t="shared" si="38"/>
@@ -19956,22 +20016,22 @@
         <v>530</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1629</v>
+        <v>1618</v>
       </c>
       <c r="B422" t="s">
-        <v>1683</v>
+        <v>1672</v>
       </c>
       <c r="C422" t="str">
         <f t="shared" si="31"/>
         <v>60F60B8C</v>
       </c>
       <c r="E422" t="s">
-        <v>1776</v>
+        <v>1765</v>
       </c>
       <c r="F422" t="s">
-        <v>1766</v>
+        <v>1755</v>
       </c>
       <c r="G422" t="str">
         <f t="shared" si="38"/>
@@ -19989,22 +20049,22 @@
         <v>530</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1620</v>
+        <v>1609</v>
       </c>
       <c r="B423" t="s">
-        <v>1684</v>
+        <v>1673</v>
       </c>
       <c r="C423" t="str">
         <f t="shared" si="31"/>
         <v>B8F50B8C</v>
       </c>
       <c r="E423" t="s">
-        <v>1777</v>
+        <v>1766</v>
       </c>
       <c r="F423" t="s">
-        <v>1767</v>
+        <v>1756</v>
       </c>
       <c r="G423" t="str">
         <f t="shared" si="38"/>
@@ -20022,22 +20082,22 @@
         <v>530</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1625</v>
+        <v>1614</v>
       </c>
       <c r="B424" t="s">
-        <v>1685</v>
+        <v>1674</v>
       </c>
       <c r="C424" t="str">
         <f t="shared" si="31"/>
         <v>C0E30B8C</v>
       </c>
       <c r="E424" t="s">
-        <v>1778</v>
+        <v>1767</v>
       </c>
       <c r="F424" t="s">
-        <v>1768</v>
+        <v>1757</v>
       </c>
       <c r="G424" t="str">
         <f t="shared" si="38"/>
@@ -20055,22 +20115,22 @@
         <v>530</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1641</v>
+        <v>1630</v>
       </c>
       <c r="B425" t="s">
-        <v>1686</v>
+        <v>1675</v>
       </c>
       <c r="C425" t="str">
         <f t="shared" si="31"/>
         <v>3EF40B8C</v>
       </c>
       <c r="E425" t="s">
-        <v>1779</v>
+        <v>1768</v>
       </c>
       <c r="F425" t="s">
-        <v>1769</v>
+        <v>1758</v>
       </c>
       <c r="G425" t="str">
         <f t="shared" si="38"/>
@@ -20088,22 +20148,22 @@
         <v>530</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1634</v>
+        <v>1623</v>
       </c>
       <c r="B426" t="s">
-        <v>1687</v>
+        <v>1676</v>
       </c>
       <c r="C426" t="str">
         <f t="shared" si="31"/>
         <v>8C0B0C8C</v>
       </c>
       <c r="E426" t="s">
-        <v>1780</v>
+        <v>1769</v>
       </c>
       <c r="F426" t="s">
-        <v>1770</v>
+        <v>1759</v>
       </c>
       <c r="G426" t="str">
         <f t="shared" si="38"/>
@@ -20121,22 +20181,22 @@
         <v>530</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1633</v>
+        <v>1622</v>
       </c>
       <c r="B427" t="s">
-        <v>1688</v>
+        <v>1677</v>
       </c>
       <c r="C427" t="str">
         <f t="shared" si="31"/>
         <v>EAF60B8C</v>
       </c>
       <c r="E427" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
       <c r="F427" t="s">
-        <v>1771</v>
+        <v>1760</v>
       </c>
       <c r="G427" t="str">
         <f t="shared" si="38"/>
@@ -20154,713 +20214,828 @@
         <v>530</v>
       </c>
       <c r="L427" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1632</v>
+        <v>1621</v>
       </c>
       <c r="B428" t="s">
-        <v>1689</v>
+        <v>1678</v>
       </c>
       <c r="C428" t="str">
         <f t="shared" si="31"/>
         <v>80E30B8C</v>
       </c>
-    </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E428" t="s">
+        <v>1792</v>
+      </c>
+      <c r="F428" t="s">
+        <v>1804</v>
+      </c>
+      <c r="G428" t="str">
+        <f t="shared" si="38"/>
+        <v>8C0C03E0</v>
+      </c>
+      <c r="H428" t="str">
+        <f t="shared" si="39"/>
+        <v>42850B8C</v>
+      </c>
+      <c r="I428" t="str">
+        <f t="shared" si="40"/>
+        <v>E0030C8C</v>
+      </c>
+      <c r="J428" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1619</v>
+        <v>1608</v>
       </c>
       <c r="B429" t="s">
-        <v>1690</v>
+        <v>1679</v>
       </c>
       <c r="C429" t="str">
         <f t="shared" si="31"/>
         <v>00E50B8C</v>
       </c>
-    </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E429" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F429" t="s">
+        <v>1805</v>
+      </c>
+      <c r="G429" t="str">
+        <f t="shared" si="38"/>
+        <v>8C0BFA18</v>
+      </c>
+      <c r="H429" t="str">
+        <f t="shared" si="39"/>
+        <v>B87B0B8C</v>
+      </c>
+      <c r="I429" t="str">
+        <f t="shared" si="40"/>
+        <v>18FA0B8C</v>
+      </c>
+      <c r="J429" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1615</v>
+        <v>1604</v>
       </c>
       <c r="B430" t="s">
-        <v>1691</v>
+        <v>1680</v>
       </c>
       <c r="C430" t="str">
         <f t="shared" si="31"/>
         <v>E00A0C8C</v>
       </c>
-    </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E430" t="s">
+        <v>1784</v>
+      </c>
+      <c r="F430" t="s">
+        <v>1806</v>
+      </c>
+      <c r="G430" t="str">
+        <f t="shared" si="38"/>
+        <v>8C0BF6E6</v>
+      </c>
+      <c r="H430" t="str">
+        <f t="shared" si="39"/>
+        <v>3C780B8C</v>
+      </c>
+      <c r="I430" t="str">
+        <f t="shared" si="40"/>
+        <v>E6F60B8C</v>
+      </c>
+      <c r="J430" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1614</v>
+        <v>1603</v>
       </c>
       <c r="B431" t="s">
-        <v>1692</v>
+        <v>1681</v>
       </c>
       <c r="C431" t="str">
         <f t="shared" si="31"/>
         <v>5EF70B8C</v>
       </c>
-    </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E431" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F431" t="s">
+        <v>1807</v>
+      </c>
+      <c r="G431" t="str">
+        <f t="shared" si="38"/>
+        <v>8C0C0620</v>
+      </c>
+      <c r="H431" t="str">
+        <f t="shared" si="39"/>
+        <v>80870B8C</v>
+      </c>
+      <c r="I431" t="str">
+        <f t="shared" si="40"/>
+        <v>20060C8C</v>
+      </c>
+      <c r="J431" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1642</v>
+        <v>1631</v>
       </c>
       <c r="B432" t="s">
-        <v>1693</v>
+        <v>1682</v>
       </c>
       <c r="C432" t="str">
         <f t="shared" si="31"/>
         <v>A437518C</v>
       </c>
-    </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E432" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F432" t="s">
+        <v>1808</v>
+      </c>
+      <c r="G432" t="str">
+        <f t="shared" si="38"/>
+        <v>8C0BE720</v>
+      </c>
+      <c r="H432" t="str">
+        <f t="shared" si="39"/>
+        <v>20680B8C</v>
+      </c>
+      <c r="I432" t="str">
+        <f t="shared" si="40"/>
+        <v>20E70B8C</v>
+      </c>
+      <c r="J432" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1643</v>
+        <v>1632</v>
       </c>
       <c r="B433" t="s">
-        <v>1694</v>
+        <v>1683</v>
       </c>
       <c r="C433" t="str">
         <f t="shared" si="31"/>
         <v>E86C798C</v>
       </c>
-      <c r="E433" s="18" t="s">
-        <v>1452</v>
-      </c>
-      <c r="F433" s="4"/>
-      <c r="G433" s="19"/>
-    </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E433" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F433" t="s">
+        <v>1809</v>
+      </c>
+      <c r="G433" t="str">
+        <f t="shared" si="38"/>
+        <v>8C5AC6BA</v>
+      </c>
+      <c r="H433" t="str">
+        <f t="shared" si="39"/>
+        <v>4232598C</v>
+      </c>
+      <c r="I433" t="str">
+        <f t="shared" si="40"/>
+        <v>BAC65A8C</v>
+      </c>
+      <c r="J433" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1644</v>
+        <v>1633</v>
       </c>
       <c r="B434" t="s">
-        <v>1695</v>
+        <v>1684</v>
       </c>
       <c r="C434" t="str">
         <f t="shared" si="31"/>
         <v>1CF3508C</v>
       </c>
       <c r="E434" t="s">
-        <v>1451</v>
+        <v>1797</v>
       </c>
       <c r="F434" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1810</v>
+      </c>
+      <c r="G434" t="str">
+        <f t="shared" si="38"/>
+        <v>8C5AC756</v>
+      </c>
+      <c r="H434" t="str">
+        <f t="shared" si="39"/>
+        <v>C832598C</v>
+      </c>
+      <c r="I434" t="str">
+        <f t="shared" si="40"/>
+        <v>56C75A8C</v>
+      </c>
+      <c r="J434" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1712</v>
+        <v>1701</v>
       </c>
       <c r="B435" t="s">
-        <v>1696</v>
+        <v>1685</v>
       </c>
       <c r="C435" t="str">
         <f t="shared" si="31"/>
         <v>B44E6A8C</v>
       </c>
       <c r="E435" t="s">
-        <v>1449</v>
-      </c>
-      <c r="G435" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1788</v>
+      </c>
+      <c r="F435" t="s">
+        <v>1811</v>
+      </c>
+      <c r="G435" t="str">
+        <f t="shared" si="38"/>
+        <v>8C6A4EB8</v>
+      </c>
+      <c r="H435" t="str">
+        <f t="shared" si="39"/>
+        <v>D875688C</v>
+      </c>
+      <c r="I435" t="str">
+        <f t="shared" si="40"/>
+        <v>B84E6A8C</v>
+      </c>
+      <c r="J435" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1628</v>
+        <v>1617</v>
       </c>
       <c r="B436" t="s">
-        <v>1697</v>
+        <v>1686</v>
       </c>
       <c r="C436" t="str">
         <f t="shared" si="31"/>
         <v>A44E6A8C</v>
       </c>
       <c r="E436" t="s">
-        <v>1447</v>
+        <v>66</v>
       </c>
       <c r="F436" t="s">
-        <v>1446</v>
-      </c>
-      <c r="G436" t="s">
-        <v>1445</v>
+        <v>141</v>
+      </c>
+      <c r="G436" t="str">
+        <f t="shared" si="38"/>
+        <v>8C06ED88</v>
       </c>
       <c r="H436" t="str">
-        <f>MID(G436,7,2)&amp;MID(G436,5,2)&amp;MID(G436,3,2)&amp;MID(G436,1,2)</f>
-        <v>E88F900C</v>
-      </c>
-    </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>08AB068C</v>
+      </c>
+      <c r="I436" t="str">
+        <f t="shared" si="40"/>
+        <v>88ED068C</v>
+      </c>
+      <c r="J436" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1650</v>
+        <v>1639</v>
       </c>
       <c r="B437" t="s">
-        <v>1698</v>
+        <v>1687</v>
       </c>
       <c r="C437" t="str">
         <f t="shared" si="31"/>
         <v>AA4E6A8C</v>
       </c>
-      <c r="G437" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E437" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F437" t="s">
+        <v>1812</v>
+      </c>
+      <c r="G437" t="str">
+        <f t="shared" si="38"/>
+        <v>8C513EE4</v>
+      </c>
+      <c r="H437" t="str">
+        <f t="shared" si="39"/>
+        <v>B0E74C8C</v>
+      </c>
+      <c r="I437" t="str">
+        <f t="shared" si="40"/>
+        <v>E43E518C</v>
+      </c>
+      <c r="J437" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1649</v>
+        <v>1638</v>
       </c>
       <c r="B438" t="s">
-        <v>1709</v>
+        <v>1698</v>
       </c>
       <c r="C438" t="str">
         <f t="shared" si="31"/>
         <v>6818608C</v>
       </c>
       <c r="E438" t="s">
-        <v>1443</v>
+        <v>1800</v>
       </c>
       <c r="F438" t="s">
-        <v>1442</v>
-      </c>
-      <c r="G438" t="s">
-        <v>1441</v>
+        <v>1813</v>
+      </c>
+      <c r="G438" t="str">
+        <f t="shared" si="38"/>
+        <v>8C5138F8</v>
       </c>
       <c r="H438" t="str">
-        <f>MID(G438,7,2)&amp;MID(G438,5,2)&amp;MID(G438,3,2)&amp;MID(G438,1,2)</f>
-        <v>6202900C</v>
-      </c>
-    </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>2CE24C8C</v>
+      </c>
+      <c r="I438" t="str">
+        <f t="shared" si="40"/>
+        <v>F838518C</v>
+      </c>
+      <c r="J438" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1637</v>
+        <v>1626</v>
       </c>
       <c r="B439" t="s">
-        <v>1700</v>
+        <v>1689</v>
       </c>
       <c r="C439" t="str">
         <f t="shared" si="31"/>
         <v>E2F60B8C</v>
       </c>
       <c r="E439" t="s">
-        <v>1440</v>
+        <v>1798</v>
       </c>
       <c r="F439" t="s">
-        <v>1439</v>
-      </c>
-      <c r="G439" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1814</v>
+      </c>
+      <c r="G439" t="str">
+        <f t="shared" si="38"/>
+        <v>8C5138A8</v>
+      </c>
+      <c r="H439" t="str">
+        <f t="shared" si="39"/>
+        <v>34754D8C</v>
+      </c>
+      <c r="I439" t="str">
+        <f t="shared" si="40"/>
+        <v>A838518C</v>
+      </c>
+      <c r="J439" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1636</v>
+        <v>1625</v>
       </c>
       <c r="B440" t="s">
-        <v>1701</v>
+        <v>1690</v>
       </c>
       <c r="C440" t="str">
         <f t="shared" si="31"/>
         <v>E0FC0B8C</v>
       </c>
-      <c r="E440" t="s">
-        <v>1437</v>
-      </c>
-      <c r="F440" t="s">
-        <v>1436</v>
-      </c>
-      <c r="G440" t="s">
-        <v>1435</v>
-      </c>
-      <c r="H440" t="str">
-        <f>MID(G440,7,2)&amp;MID(G440,5,2)&amp;MID(G440,3,2)&amp;MID(G440,1,2)</f>
-        <v>DA7D900C</v>
-      </c>
-    </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1610</v>
+        <v>1599</v>
       </c>
       <c r="B441" t="s">
-        <v>1702</v>
+        <v>1691</v>
       </c>
       <c r="C441" t="str">
         <f t="shared" si="31"/>
         <v>34FF0B8C</v>
       </c>
-      <c r="E441" t="s">
-        <v>1434</v>
-      </c>
-      <c r="F441" t="s">
-        <v>1433</v>
-      </c>
-      <c r="G441" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1710</v>
+        <v>1699</v>
       </c>
       <c r="B442" t="s">
-        <v>1711</v>
+        <v>1700</v>
       </c>
       <c r="C442" t="str">
-        <f t="shared" ref="C442:C479" si="41">MID(B442,7,2)&amp;MID(B442,5,2)&amp;MID(B442,3,2)&amp;MID(B442,1,2)</f>
+        <f t="shared" ref="C442:C490" si="41">MID(B442,7,2)&amp;MID(B442,5,2)&amp;MID(B442,3,2)&amp;MID(B442,1,2)</f>
         <v>186B798C</v>
       </c>
-      <c r="E442" t="s">
-        <v>1432</v>
-      </c>
-      <c r="F442" t="s">
-        <v>1431</v>
-      </c>
-      <c r="G442" t="s">
-        <v>1469</v>
-      </c>
-      <c r="H442" t="str">
-        <f>MID(G442,7,2)&amp;MID(G442,5,2)&amp;MID(G442,3,2)&amp;MID(G442,1,2)</f>
-        <v>6048900C</v>
-      </c>
-    </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1646</v>
+        <v>1635</v>
       </c>
       <c r="B443" t="s">
-        <v>1703</v>
+        <v>1692</v>
       </c>
       <c r="C443" t="str">
         <f t="shared" si="41"/>
         <v>20FB0B8C</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1704</v>
+        <v>1693</v>
       </c>
       <c r="B444" t="s">
-        <v>1705</v>
+        <v>1694</v>
       </c>
       <c r="C444" t="str">
         <f t="shared" si="41"/>
         <v>26A7048C</v>
       </c>
-      <c r="E444" t="s">
-        <v>1430</v>
-      </c>
-      <c r="F444" t="s">
-        <v>1429</v>
-      </c>
-      <c r="G444" t="str">
-        <f>MID(F444,7,2)&amp;MID(F444,5,2)&amp;MID(F444,3,2)&amp;MID(F444,1,2)</f>
-        <v>C08F900C</v>
-      </c>
-    </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1639</v>
+        <v>1628</v>
       </c>
       <c r="B445" t="s">
-        <v>1706</v>
+        <v>1695</v>
       </c>
       <c r="C445" t="str">
         <f t="shared" si="41"/>
         <v>FAE50B8C</v>
       </c>
-      <c r="E445" t="s">
-        <v>1428</v>
-      </c>
-      <c r="F445" t="s">
-        <v>1427</v>
-      </c>
-      <c r="G445" t="str">
-        <f>MID(F445,7,2)&amp;MID(F445,5,2)&amp;MID(F445,3,2)&amp;MID(F445,1,2)</f>
-        <v>0066A50C</v>
-      </c>
-    </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1647</v>
+        <v>1636</v>
       </c>
       <c r="B446" t="s">
-        <v>1707</v>
+        <v>1696</v>
       </c>
       <c r="C446" t="str">
         <f t="shared" si="41"/>
         <v>6003518C</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1648</v>
+        <v>1637</v>
       </c>
       <c r="B447" t="s">
-        <v>1708</v>
+        <v>1697</v>
       </c>
       <c r="C447" t="str">
         <f t="shared" si="41"/>
         <v>582C518C</v>
       </c>
-      <c r="E447" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F447" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1717</v>
+        <v>1706</v>
       </c>
       <c r="B448" t="s">
-        <v>1758</v>
+        <v>1747</v>
       </c>
       <c r="C448" t="str">
         <f t="shared" si="41"/>
         <v>5033798C</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1739</v>
+        <v>1728</v>
       </c>
       <c r="B449" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="C449" t="str">
         <f t="shared" si="41"/>
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1738</v>
+        <v>1727</v>
       </c>
       <c r="B450" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="C450" t="str">
         <f t="shared" si="41"/>
         <v>B0A85A8C</v>
       </c>
-      <c r="E450" t="s">
-        <v>1424</v>
-      </c>
-      <c r="F450" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G450" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1740</v>
+        <v>1729</v>
       </c>
       <c r="B451" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="C451" t="str">
         <f t="shared" si="41"/>
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1741</v>
+        <v>1730</v>
       </c>
       <c r="B452" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="C452" t="str">
         <f t="shared" si="41"/>
         <v>B0A85A8C</v>
       </c>
-      <c r="H452" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1742</v>
+        <v>1731</v>
       </c>
       <c r="B453" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="C453" t="str">
         <f t="shared" si="41"/>
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1743</v>
+        <v>1732</v>
       </c>
       <c r="B454" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="C454" t="str">
         <f t="shared" si="41"/>
         <v>B0A85A8C</v>
       </c>
-      <c r="H454" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1744</v>
+        <v>1733</v>
       </c>
       <c r="B455" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="C455" t="str">
         <f t="shared" si="41"/>
         <v>B0A85A8C</v>
       </c>
-      <c r="H455" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1745</v>
+        <v>1734</v>
       </c>
       <c r="B456" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="C456" t="str">
         <f t="shared" si="41"/>
         <v>B0A85A8C</v>
       </c>
-      <c r="H456" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1746</v>
+        <v>1735</v>
       </c>
       <c r="B457" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="C457" t="str">
         <f t="shared" si="41"/>
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1747</v>
+        <v>1736</v>
       </c>
       <c r="B458" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="C458" t="str">
         <f t="shared" si="41"/>
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1748</v>
+        <v>1737</v>
       </c>
       <c r="B459" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="C459" t="str">
         <f t="shared" si="41"/>
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B460" t="s">
         <v>1749</v>
-      </c>
-      <c r="B460" t="s">
-        <v>1760</v>
       </c>
       <c r="C460" t="str">
         <f t="shared" si="41"/>
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1750</v>
+        <v>1739</v>
       </c>
       <c r="B461" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="C461" t="str">
         <f t="shared" si="41"/>
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1751</v>
+        <v>1740</v>
       </c>
       <c r="B462" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="C462" t="str">
         <f t="shared" si="41"/>
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1752</v>
+        <v>1741</v>
       </c>
       <c r="B463" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="C463" t="str">
         <f t="shared" si="41"/>
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1753</v>
+        <v>1742</v>
       </c>
       <c r="B464" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="C464" t="str">
         <f t="shared" si="41"/>
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1754</v>
+        <v>1743</v>
       </c>
       <c r="B465" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="C465" t="str">
         <f t="shared" si="41"/>
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1755</v>
+        <v>1744</v>
       </c>
       <c r="B466" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="C466" t="str">
         <f t="shared" si="41"/>
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1756</v>
+        <v>1745</v>
       </c>
       <c r="B467" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="C467" t="str">
         <f t="shared" si="41"/>
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1757</v>
+        <v>1746</v>
       </c>
       <c r="B468" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="C468" t="str">
         <f t="shared" si="41"/>
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1772</v>
+        <v>1761</v>
       </c>
       <c r="B469" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
       <c r="C469" t="str">
         <f t="shared" si="41"/>
         <v>70E8068C</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1777</v>
+        <v>1766</v>
       </c>
       <c r="B470" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
       <c r="C470" t="str">
         <f t="shared" si="41"/>
         <v>56E8068C</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1776</v>
+        <v>1765</v>
       </c>
       <c r="B471" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
       <c r="C471" t="str">
         <f t="shared" si="41"/>
         <v>8CE7068C</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1773</v>
+        <v>1762</v>
       </c>
       <c r="B472" t="s">
-        <v>1785</v>
+        <v>1774</v>
       </c>
       <c r="C472" t="str">
         <f t="shared" si="41"/>
         <v>EE13078C</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1774</v>
+        <v>1763</v>
       </c>
       <c r="B473" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
       <c r="C473" t="str">
         <f t="shared" si="41"/>
         <v>6014078C</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1775</v>
+        <v>1764</v>
       </c>
       <c r="B474" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
       <c r="C474" t="str">
         <f t="shared" si="41"/>
         <v>38030C8C</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
       <c r="B475" t="s">
         <v>1279</v>
@@ -20870,52 +21045,276 @@
         <v>10AA0A8C</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1778</v>
+        <v>1767</v>
       </c>
       <c r="B476" t="s">
-        <v>1790</v>
+        <v>1779</v>
       </c>
       <c r="C476" t="str">
         <f t="shared" si="41"/>
         <v>5C0A5B8C</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1779</v>
+        <v>1768</v>
       </c>
       <c r="B477" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
       <c r="C477" t="str">
         <f t="shared" si="41"/>
         <v>B2795B8C</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1780</v>
+        <v>1769</v>
       </c>
       <c r="B478" t="s">
-        <v>1792</v>
+        <v>1781</v>
       </c>
       <c r="C478" t="str">
         <f t="shared" si="41"/>
         <v>70805B8C</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
       <c r="B479" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="C479" t="str">
         <f t="shared" si="41"/>
         <v>7CE7068C</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C480" t="str">
+        <f t="shared" si="41"/>
+        <v>E6F60B8C</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C481" t="str">
+        <f t="shared" si="41"/>
+        <v>20E70B8C</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C482" t="str">
+        <f t="shared" si="41"/>
+        <v>B84E6A8C</v>
+      </c>
+      <c r="E482" s="18" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F482" s="4"/>
+      <c r="G482" s="19"/>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C483" t="str">
+        <f t="shared" si="41"/>
+        <v>20060C8C</v>
+      </c>
+      <c r="E483" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F483" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C484" t="str">
+        <f t="shared" si="41"/>
+        <v>E0030C8C</v>
+      </c>
+      <c r="E484" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G484" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C485" t="str">
+        <f t="shared" si="41"/>
+        <v>18FA0B8C</v>
+      </c>
+      <c r="E485" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F485" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G485" t="s">
+        <v>1435</v>
+      </c>
+      <c r="H485" t="str">
+        <f>MID(G485,7,2)&amp;MID(G485,5,2)&amp;MID(G485,3,2)&amp;MID(G485,1,2)</f>
+        <v>E88F900C</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B486" t="s">
+        <v>348</v>
+      </c>
+      <c r="C486" t="str">
+        <f t="shared" si="41"/>
+        <v>BAC65A8C</v>
+      </c>
+      <c r="G486" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B487" t="s">
+        <v>353</v>
+      </c>
+      <c r="C487" t="str">
+        <f t="shared" si="41"/>
+        <v>56C75A8C</v>
+      </c>
+      <c r="E487" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F487" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G487" t="s">
+        <v>1431</v>
+      </c>
+      <c r="H487" t="str">
+        <f>MID(G487,7,2)&amp;MID(G487,5,2)&amp;MID(G487,3,2)&amp;MID(G487,1,2)</f>
+        <v>6202900C</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C488" t="str">
+        <f t="shared" si="41"/>
+        <v>A838518C</v>
+      </c>
+      <c r="E488" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F488" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G488" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C489" t="str">
+        <f t="shared" si="41"/>
+        <v>F838518C</v>
+      </c>
+      <c r="E489" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F489" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G489" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H489" t="str">
+        <f>MID(G489,7,2)&amp;MID(G489,5,2)&amp;MID(G489,3,2)&amp;MID(G489,1,2)</f>
+        <v>DA7D900C</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C490" t="str">
+        <f t="shared" si="41"/>
+        <v>E43E518C</v>
+      </c>
+      <c r="E490" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F490" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G490" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E491" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F491" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G491" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H491" t="str">
+        <f>MID(G491,7,2)&amp;MID(G491,5,2)&amp;MID(G491,3,2)&amp;MID(G491,1,2)</f>
+        <v>6048900C</v>
       </c>
     </row>
   </sheetData>
@@ -20940,52 +21339,52 @@
       <selection activeCell="AP7" sqref="AP7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="4.81640625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="4.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.7265625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="6.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.26953125" customWidth="1"/>
-    <col min="10" max="10" width="6.7265625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.453125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="38.7265625" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="38.7109375" customWidth="1"/>
     <col min="13" max="13" width="5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.81640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="24.54296875" style="20" customWidth="1"/>
-    <col min="16" max="16" width="7.26953125" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" style="20" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" customWidth="1"/>
     <col min="17" max="17" width="7" customWidth="1"/>
-    <col min="18" max="18" width="27.7265625" customWidth="1"/>
-    <col min="19" max="19" width="6.1796875" customWidth="1"/>
+    <col min="18" max="18" width="27.7109375" customWidth="1"/>
+    <col min="19" max="19" width="6.140625" customWidth="1"/>
     <col min="20" max="20" width="6" customWidth="1"/>
-    <col min="21" max="21" width="23.26953125" customWidth="1"/>
+    <col min="21" max="21" width="23.28515625" customWidth="1"/>
     <col min="22" max="22" width="7" customWidth="1"/>
-    <col min="23" max="23" width="7.26953125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="48.81640625" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="48.85546875" customWidth="1"/>
     <col min="25" max="25" width="6" style="1" customWidth="1"/>
-    <col min="26" max="26" width="5.54296875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="11.1796875" customWidth="1"/>
+    <col min="26" max="26" width="5.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" customWidth="1"/>
     <col min="28" max="28" width="7" customWidth="1"/>
-    <col min="29" max="29" width="7.1796875" customWidth="1"/>
-    <col min="30" max="30" width="27.81640625" customWidth="1"/>
-    <col min="31" max="31" width="5.54296875" customWidth="1"/>
-    <col min="32" max="32" width="5.1796875" customWidth="1"/>
+    <col min="29" max="29" width="7.140625" customWidth="1"/>
+    <col min="30" max="30" width="27.85546875" customWidth="1"/>
+    <col min="31" max="31" width="5.5703125" customWidth="1"/>
+    <col min="32" max="32" width="5.140625" customWidth="1"/>
     <col min="33" max="33" width="17" customWidth="1"/>
-    <col min="34" max="34" width="6.7265625" customWidth="1"/>
-    <col min="35" max="35" width="6.81640625" customWidth="1"/>
-    <col min="36" max="36" width="29.7265625" customWidth="1"/>
-    <col min="37" max="37" width="6.1796875" customWidth="1"/>
-    <col min="38" max="38" width="6.7265625" customWidth="1"/>
-    <col min="39" max="39" width="26.26953125" customWidth="1"/>
-    <col min="40" max="40" width="6.81640625" customWidth="1"/>
-    <col min="41" max="41" width="7.26953125" customWidth="1"/>
-    <col min="42" max="42" width="33.453125" customWidth="1"/>
+    <col min="34" max="34" width="6.7109375" customWidth="1"/>
+    <col min="35" max="35" width="6.85546875" customWidth="1"/>
+    <col min="36" max="36" width="29.7109375" customWidth="1"/>
+    <col min="37" max="37" width="6.140625" customWidth="1"/>
+    <col min="38" max="38" width="6.7109375" customWidth="1"/>
+    <col min="39" max="39" width="26.28515625" customWidth="1"/>
+    <col min="40" max="40" width="6.85546875" customWidth="1"/>
+    <col min="41" max="41" width="7.28515625" customWidth="1"/>
+    <col min="42" max="42" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>303</v>
       </c>
@@ -21027,7 +21426,7 @@
       <c r="AC1" s="33"/>
       <c r="AD1" s="34"/>
       <c r="AE1" s="32" t="s">
-        <v>1483</v>
+        <v>1473</v>
       </c>
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
@@ -21035,7 +21434,7 @@
       <c r="AI1" s="33"/>
       <c r="AJ1" s="34"/>
       <c r="AK1" s="32" t="s">
-        <v>1529</v>
+        <v>1518</v>
       </c>
       <c r="AL1" s="33"/>
       <c r="AM1" s="33"/>
@@ -21043,7 +21442,7 @@
       <c r="AO1" s="33"/>
       <c r="AP1" s="34"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>337</v>
       </c>
@@ -21171,7 +21570,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>20</v>
       </c>
@@ -21261,7 +21660,7 @@
         <v>1</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>1484</v>
+        <v>1474</v>
       </c>
       <c r="AH3" s="8"/>
       <c r="AI3" s="1" t="s">
@@ -21276,7 +21675,7 @@
         <v>15</v>
       </c>
       <c r="AM3" t="s">
-        <v>1530</v>
+        <v>1519</v>
       </c>
       <c r="AN3" s="1" t="s">
         <v>63</v>
@@ -21286,7 +21685,7 @@
       </c>
       <c r="AP3" s="22"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>21</v>
       </c>
@@ -21378,7 +21777,7 @@
         <v>2</v>
       </c>
       <c r="AG4" t="s">
-        <v>1485</v>
+        <v>1475</v>
       </c>
       <c r="AI4" s="1" t="s">
         <v>63</v>
@@ -21392,7 +21791,7 @@
         <v>16</v>
       </c>
       <c r="AM4" t="s">
-        <v>1532</v>
+        <v>1521</v>
       </c>
       <c r="AN4" s="1" t="s">
         <v>63</v>
@@ -21402,7 +21801,7 @@
       </c>
       <c r="AP4" s="22"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>22</v>
       </c>
@@ -21494,7 +21893,7 @@
         <v>3</v>
       </c>
       <c r="AG5" t="s">
-        <v>1487</v>
+        <v>1477</v>
       </c>
       <c r="AI5" s="1" t="s">
         <v>63</v>
@@ -21508,7 +21907,7 @@
         <v>17</v>
       </c>
       <c r="AM5" t="s">
-        <v>1531</v>
+        <v>1520</v>
       </c>
       <c r="AN5" s="1" t="s">
         <v>63</v>
@@ -21518,7 +21917,7 @@
       </c>
       <c r="AP5" s="22"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>23</v>
       </c>
@@ -21615,7 +22014,7 @@
         <v>4</v>
       </c>
       <c r="AG6" t="s">
-        <v>1488</v>
+        <v>1478</v>
       </c>
       <c r="AI6" s="1" t="s">
         <v>63</v>
@@ -21629,16 +22028,16 @@
         <v>18</v>
       </c>
       <c r="AM6" t="s">
-        <v>1533</v>
+        <v>1522</v>
       </c>
       <c r="AO6" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AP6" s="22" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>24</v>
       </c>
@@ -21729,7 +22128,7 @@
         <v>5</v>
       </c>
       <c r="AG7" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
       <c r="AI7" s="1" t="s">
         <v>63</v>
@@ -21743,7 +22142,7 @@
         <v>19</v>
       </c>
       <c r="AM7" t="s">
-        <v>1534</v>
+        <v>1523</v>
       </c>
       <c r="AN7" s="1" t="s">
         <v>63</v>
@@ -21753,7 +22152,7 @@
       </c>
       <c r="AP7" s="22"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>25</v>
       </c>
@@ -21848,7 +22247,7 @@
         <v>6</v>
       </c>
       <c r="AG8" t="s">
-        <v>1490</v>
+        <v>1480</v>
       </c>
       <c r="AI8" s="1" t="s">
         <v>63</v>
@@ -21862,7 +22261,7 @@
         <v>1A</v>
       </c>
       <c r="AM8" t="s">
-        <v>1535</v>
+        <v>1524</v>
       </c>
       <c r="AN8" s="1" t="s">
         <v>63</v>
@@ -21872,7 +22271,7 @@
       </c>
       <c r="AP8" s="22"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>26</v>
       </c>
@@ -21961,7 +22360,7 @@
         <v>7</v>
       </c>
       <c r="AG9" t="s">
-        <v>1491</v>
+        <v>1481</v>
       </c>
       <c r="AI9" s="1" t="s">
         <v>63</v>
@@ -21975,16 +22374,16 @@
         <v>1B</v>
       </c>
       <c r="AM9" t="s">
-        <v>1536</v>
+        <v>1525</v>
       </c>
       <c r="AO9" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AP9" s="22" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>27</v>
       </c>
@@ -22076,7 +22475,7 @@
         <v>8</v>
       </c>
       <c r="AG10" t="s">
-        <v>1486</v>
+        <v>1476</v>
       </c>
       <c r="AI10" s="1" t="s">
         <v>63</v>
@@ -22090,7 +22489,7 @@
         <v>1C</v>
       </c>
       <c r="AM10" t="s">
-        <v>1537</v>
+        <v>1526</v>
       </c>
       <c r="AN10" s="1" t="s">
         <v>63</v>
@@ -22099,10 +22498,10 @@
         <v>63</v>
       </c>
       <c r="AP10" s="22" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>28</v>
       </c>
@@ -22194,7 +22593,7 @@
         <v>9</v>
       </c>
       <c r="AG11" t="s">
-        <v>1492</v>
+        <v>1482</v>
       </c>
       <c r="AI11" s="1" t="s">
         <v>63</v>
@@ -22208,7 +22607,7 @@
         <v>1D</v>
       </c>
       <c r="AM11" t="s">
-        <v>1538</v>
+        <v>1527</v>
       </c>
       <c r="AN11" s="1" t="s">
         <v>63</v>
@@ -22217,10 +22616,10 @@
         <v>63</v>
       </c>
       <c r="AP11" s="22" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>29</v>
       </c>
@@ -22312,7 +22711,7 @@
         <v>A</v>
       </c>
       <c r="AG12" t="s">
-        <v>1493</v>
+        <v>1483</v>
       </c>
       <c r="AI12" s="1" t="s">
         <v>63</v>
@@ -22326,7 +22725,7 @@
         <v>1E</v>
       </c>
       <c r="AM12" t="s">
-        <v>1539</v>
+        <v>1528</v>
       </c>
       <c r="AN12" s="1" t="s">
         <v>63</v>
@@ -22336,7 +22735,7 @@
       </c>
       <c r="AP12" s="22"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>30</v>
       </c>
@@ -22425,7 +22824,7 @@
         <v>B</v>
       </c>
       <c r="AG13" t="s">
-        <v>1494</v>
+        <v>1484</v>
       </c>
       <c r="AI13" s="1" t="s">
         <v>63</v>
@@ -22439,7 +22838,7 @@
         <v>1F</v>
       </c>
       <c r="AM13" t="s">
-        <v>1540</v>
+        <v>1529</v>
       </c>
       <c r="AN13" s="1" t="s">
         <v>63</v>
@@ -22449,7 +22848,7 @@
       </c>
       <c r="AP13" s="22"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>31</v>
       </c>
@@ -22538,7 +22937,7 @@
         <v>C</v>
       </c>
       <c r="AG14" t="s">
-        <v>1495</v>
+        <v>1485</v>
       </c>
       <c r="AI14" s="1" t="s">
         <v>63</v>
@@ -22552,7 +22951,7 @@
         <v>20</v>
       </c>
       <c r="AM14" t="s">
-        <v>1541</v>
+        <v>1530</v>
       </c>
       <c r="AN14" s="1" t="s">
         <v>63</v>
@@ -22562,7 +22961,7 @@
       </c>
       <c r="AP14" s="22"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>32</v>
       </c>
@@ -22637,7 +23036,7 @@
         <v>D</v>
       </c>
       <c r="AG15" t="s">
-        <v>1496</v>
+        <v>1486</v>
       </c>
       <c r="AI15" s="1" t="s">
         <v>63</v>
@@ -22651,7 +23050,7 @@
         <v>21</v>
       </c>
       <c r="AM15" t="s">
-        <v>1542</v>
+        <v>1531</v>
       </c>
       <c r="AN15" s="1" t="s">
         <v>63</v>
@@ -22661,7 +23060,7 @@
       </c>
       <c r="AP15" s="22"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>33</v>
       </c>
@@ -22736,7 +23135,7 @@
         <v>E</v>
       </c>
       <c r="AG16" t="s">
-        <v>1497</v>
+        <v>1487</v>
       </c>
       <c r="AH16" s="1" t="s">
         <v>63</v>
@@ -22753,7 +23152,7 @@
         <v>22</v>
       </c>
       <c r="AM16" t="s">
-        <v>1543</v>
+        <v>1532</v>
       </c>
       <c r="AN16" s="1" t="s">
         <v>63</v>
@@ -22763,7 +23162,7 @@
       </c>
       <c r="AP16" s="22"/>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>34</v>
       </c>
@@ -22838,7 +23237,7 @@
         <v>F</v>
       </c>
       <c r="AG17" t="s">
-        <v>1498</v>
+        <v>1488</v>
       </c>
       <c r="AI17" s="1" t="s">
         <v>63</v>
@@ -22852,16 +23251,16 @@
         <v>23</v>
       </c>
       <c r="AM17" t="s">
-        <v>1544</v>
+        <v>1533</v>
       </c>
       <c r="AO17" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AP17" s="22" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>35</v>
       </c>
@@ -22936,7 +23335,7 @@
         <v>10</v>
       </c>
       <c r="AG18" t="s">
-        <v>1499</v>
+        <v>1489</v>
       </c>
       <c r="AI18" s="1" t="s">
         <v>63</v>
@@ -22950,16 +23349,16 @@
         <v>24</v>
       </c>
       <c r="AM18" t="s">
-        <v>1545</v>
+        <v>1534</v>
       </c>
       <c r="AO18" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AP18" s="22" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>36</v>
       </c>
@@ -23031,13 +23430,13 @@
         <v>11</v>
       </c>
       <c r="AG19" t="s">
-        <v>1500</v>
+        <v>1490</v>
       </c>
       <c r="AI19" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AJ19" s="22" t="s">
-        <v>1528</v>
+        <v>1517</v>
       </c>
       <c r="AK19" s="13">
         <v>37</v>
@@ -23047,17 +23446,17 @@
         <v>25</v>
       </c>
       <c r="AM19" s="7" t="s">
-        <v>1546</v>
+        <v>1535</v>
       </c>
       <c r="AN19" s="7"/>
       <c r="AO19" s="10" t="s">
         <v>63</v>
       </c>
       <c r="AP19" s="23" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>37</v>
       </c>
@@ -23129,16 +23528,16 @@
         <v>12</v>
       </c>
       <c r="AG20" t="s">
-        <v>1501</v>
+        <v>1491</v>
       </c>
       <c r="AI20" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AJ20" s="22" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>38</v>
       </c>
@@ -23213,17 +23612,17 @@
         <v>13</v>
       </c>
       <c r="AG21" s="7" t="s">
-        <v>1502</v>
+        <v>1492</v>
       </c>
       <c r="AH21" s="7"/>
       <c r="AI21" s="10" t="s">
         <v>63</v>
       </c>
       <c r="AJ21" s="23" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.35">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>39</v>
       </c>
@@ -23293,7 +23692,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>40</v>
       </c>
@@ -23363,7 +23762,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>41</v>
       </c>
@@ -23428,7 +23827,7 @@
       </c>
       <c r="X24" s="22"/>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>42</v>
       </c>
@@ -23499,7 +23898,7 @@
       </c>
       <c r="X25" s="22"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>43</v>
       </c>
@@ -23570,7 +23969,7 @@
       </c>
       <c r="X26" s="22"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>44</v>
       </c>
@@ -23635,7 +24034,7 @@
       </c>
       <c r="X27" s="22"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>45</v>
       </c>
@@ -23697,7 +24096,7 @@
       </c>
       <c r="X28" s="22"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>46</v>
       </c>
@@ -23756,7 +24155,7 @@
       </c>
       <c r="X29" s="22"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>47</v>
       </c>
@@ -23818,7 +24217,7 @@
       </c>
       <c r="X30" s="22"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>48</v>
       </c>
@@ -23883,7 +24282,7 @@
       </c>
       <c r="X31" s="22"/>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>49</v>
       </c>
@@ -23945,7 +24344,7 @@
       </c>
       <c r="X32" s="22"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>50</v>
       </c>
@@ -24015,7 +24414,7 @@
       </c>
       <c r="X33" s="22"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>51</v>
       </c>
@@ -24083,7 +24482,7 @@
       </c>
       <c r="X34" s="22"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>52</v>
       </c>
@@ -24149,7 +24548,7 @@
       </c>
       <c r="X35" s="22"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G36" s="12">
         <v>54</v>
       </c>
@@ -24201,7 +24600,7 @@
       </c>
       <c r="X36" s="22"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G37" s="12">
         <v>55</v>
       </c>
@@ -24253,7 +24652,7 @@
       </c>
       <c r="X37" s="22"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G38" s="12">
         <v>56</v>
       </c>
@@ -24299,7 +24698,7 @@
       </c>
       <c r="X38" s="22"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G39" s="12">
         <v>57</v>
       </c>
@@ -24351,7 +24750,7 @@
       </c>
       <c r="X39" s="22"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G40" s="12">
         <v>58</v>
       </c>
@@ -24400,7 +24799,7 @@
       </c>
       <c r="X40" s="22"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G41" s="12">
         <v>59</v>
       </c>
@@ -24449,7 +24848,7 @@
       </c>
       <c r="X41" s="22"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G42" s="12">
         <v>60</v>
       </c>
@@ -24495,7 +24894,7 @@
       </c>
       <c r="X42" s="22"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G43" s="12">
         <v>61</v>
       </c>
@@ -24538,7 +24937,7 @@
       </c>
       <c r="X43" s="22"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G44" s="12">
         <v>62</v>
       </c>
@@ -24587,7 +24986,7 @@
       </c>
       <c r="X44" s="22"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G45" s="12">
         <v>63</v>
       </c>
@@ -24636,7 +25035,7 @@
       </c>
       <c r="X45" s="22"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G46" s="12">
         <v>64</v>
       </c>
@@ -24688,7 +25087,7 @@
       </c>
       <c r="X46" s="22"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G47" s="13">
         <v>65</v>
       </c>
@@ -24741,7 +25140,7 @@
       </c>
       <c r="X47" s="22"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M48" s="12">
         <v>66</v>
       </c>
@@ -24777,7 +25176,7 @@
       </c>
       <c r="X48" s="22"/>
     </row>
-    <row r="49" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="49" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M49" s="12">
         <v>67</v>
       </c>
@@ -24813,7 +25212,7 @@
       </c>
       <c r="X49" s="22"/>
     </row>
-    <row r="50" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="50" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M50" s="12">
         <v>68</v>
       </c>
@@ -24849,7 +25248,7 @@
       </c>
       <c r="X50" s="22"/>
     </row>
-    <row r="51" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="51" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M51" s="12">
         <v>69</v>
       </c>
@@ -24882,7 +25281,7 @@
       </c>
       <c r="X51" s="22"/>
     </row>
-    <row r="52" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="52" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M52" s="12">
         <v>70</v>
       </c>
@@ -24915,7 +25314,7 @@
       </c>
       <c r="X52" s="22"/>
     </row>
-    <row r="53" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="53" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M53" s="12">
         <v>71</v>
       </c>
@@ -24951,7 +25350,7 @@
       </c>
       <c r="X53" s="22"/>
     </row>
-    <row r="54" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="54" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M54" s="12">
         <v>72</v>
       </c>
@@ -24987,7 +25386,7 @@
       </c>
       <c r="X54" s="22"/>
     </row>
-    <row r="55" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="55" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M55" s="12">
         <v>73</v>
       </c>
@@ -25017,7 +25416,7 @@
       </c>
       <c r="X55" s="22"/>
     </row>
-    <row r="56" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="56" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M56" s="12">
         <v>74</v>
       </c>
@@ -25053,7 +25452,7 @@
       </c>
       <c r="X56" s="22"/>
     </row>
-    <row r="57" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="57" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M57" s="12">
         <v>75</v>
       </c>
@@ -25089,7 +25488,7 @@
       </c>
       <c r="X57" s="22"/>
     </row>
-    <row r="58" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="58" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M58" s="12">
         <v>76</v>
       </c>
@@ -25125,7 +25524,7 @@
       </c>
       <c r="X58" s="22"/>
     </row>
-    <row r="59" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="59" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M59" s="12">
         <v>77</v>
       </c>
@@ -25161,7 +25560,7 @@
       </c>
       <c r="X59" s="22"/>
     </row>
-    <row r="60" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="60" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M60" s="12">
         <v>78</v>
       </c>
@@ -25197,7 +25596,7 @@
       </c>
       <c r="X60" s="22"/>
     </row>
-    <row r="61" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="61" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M61" s="12">
         <v>79</v>
       </c>
@@ -25233,7 +25632,7 @@
       </c>
       <c r="X61" s="22"/>
     </row>
-    <row r="62" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="62" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M62" s="12">
         <v>80</v>
       </c>
@@ -25269,7 +25668,7 @@
       </c>
       <c r="X62" s="22"/>
     </row>
-    <row r="63" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="63" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M63" s="12">
         <v>81</v>
       </c>
@@ -25305,7 +25704,7 @@
       </c>
       <c r="X63" s="22"/>
     </row>
-    <row r="64" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="64" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M64" s="12">
         <v>82</v>
       </c>
@@ -25341,7 +25740,7 @@
       </c>
       <c r="X64" s="22"/>
     </row>
-    <row r="65" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="65" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M65" s="12">
         <v>83</v>
       </c>
@@ -25374,7 +25773,7 @@
       </c>
       <c r="X65" s="22"/>
     </row>
-    <row r="66" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="66" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M66" s="12">
         <v>84</v>
       </c>
@@ -25410,7 +25809,7 @@
       </c>
       <c r="X66" s="22"/>
     </row>
-    <row r="67" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="67" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M67" s="12">
         <v>85</v>
       </c>
@@ -25443,7 +25842,7 @@
       </c>
       <c r="X67" s="22"/>
     </row>
-    <row r="68" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="68" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M68" s="12">
         <v>86</v>
       </c>
@@ -25476,7 +25875,7 @@
       </c>
       <c r="X68" s="22"/>
     </row>
-    <row r="69" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="69" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M69" s="12">
         <v>87</v>
       </c>
@@ -25509,7 +25908,7 @@
       </c>
       <c r="X69" s="22"/>
     </row>
-    <row r="70" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="70" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M70" s="12">
         <v>88</v>
       </c>
@@ -25545,7 +25944,7 @@
       </c>
       <c r="X70" s="22"/>
     </row>
-    <row r="71" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="71" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M71" s="12">
         <v>89</v>
       </c>
@@ -25580,7 +25979,7 @@
       </c>
       <c r="X71" s="22"/>
     </row>
-    <row r="72" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="72" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M72" s="12">
         <v>90</v>
       </c>
@@ -25616,7 +26015,7 @@
       </c>
       <c r="X72" s="22"/>
     </row>
-    <row r="73" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="73" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M73" s="12">
         <v>91</v>
       </c>
@@ -25649,7 +26048,7 @@
       </c>
       <c r="X73" s="22"/>
     </row>
-    <row r="74" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="74" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M74" s="12">
         <v>92</v>
       </c>
@@ -25685,7 +26084,7 @@
       </c>
       <c r="X74" s="22"/>
     </row>
-    <row r="75" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="75" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M75" s="12">
         <v>93</v>
       </c>
@@ -25721,7 +26120,7 @@
       </c>
       <c r="X75" s="22"/>
     </row>
-    <row r="76" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="76" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M76" s="12">
         <v>94</v>
       </c>
@@ -25757,7 +26156,7 @@
       </c>
       <c r="X76" s="22"/>
     </row>
-    <row r="77" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="77" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M77" s="12">
         <v>95</v>
       </c>
@@ -25793,7 +26192,7 @@
       </c>
       <c r="X77" s="22"/>
     </row>
-    <row r="78" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="78" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M78" s="12">
         <v>96</v>
       </c>
@@ -25829,7 +26228,7 @@
       </c>
       <c r="X78" s="22"/>
     </row>
-    <row r="79" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="79" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M79" s="12">
         <v>97</v>
       </c>
@@ -25865,7 +26264,7 @@
       </c>
       <c r="X79" s="22"/>
     </row>
-    <row r="80" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="80" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M80" s="12">
         <v>98</v>
       </c>
@@ -25901,7 +26300,7 @@
       </c>
       <c r="X80" s="22"/>
     </row>
-    <row r="81" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="81" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M81" s="12">
         <v>99</v>
       </c>
@@ -25937,7 +26336,7 @@
       </c>
       <c r="X81" s="22"/>
     </row>
-    <row r="82" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="82" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M82" s="12">
         <v>100</v>
       </c>
@@ -25973,7 +26372,7 @@
       </c>
       <c r="X82" s="22"/>
     </row>
-    <row r="83" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="83" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M83" s="12">
         <v>101</v>
       </c>
@@ -26009,7 +26408,7 @@
       </c>
       <c r="X83" s="22"/>
     </row>
-    <row r="84" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="84" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M84" s="12">
         <v>102</v>
       </c>
@@ -26045,7 +26444,7 @@
       </c>
       <c r="X84" s="22"/>
     </row>
-    <row r="85" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="85" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M85" s="12">
         <v>103</v>
       </c>
@@ -26081,7 +26480,7 @@
       </c>
       <c r="X85" s="22"/>
     </row>
-    <row r="86" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="86" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M86" s="12">
         <v>104</v>
       </c>
@@ -26117,7 +26516,7 @@
       </c>
       <c r="X86" s="22"/>
     </row>
-    <row r="87" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="87" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M87" s="12">
         <v>105</v>
       </c>
@@ -26155,7 +26554,7 @@
       </c>
       <c r="X87" s="22"/>
     </row>
-    <row r="88" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="88" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M88" s="12">
         <v>106</v>
       </c>
@@ -26191,7 +26590,7 @@
       </c>
       <c r="X88" s="22"/>
     </row>
-    <row r="89" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="89" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M89" s="12">
         <v>107</v>
       </c>
@@ -26229,7 +26628,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="90" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="90" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M90" s="12">
         <v>108</v>
       </c>
@@ -26265,7 +26664,7 @@
       </c>
       <c r="X90" s="22"/>
     </row>
-    <row r="91" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="91" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M91" s="12">
         <v>109</v>
       </c>
@@ -26301,7 +26700,7 @@
       </c>
       <c r="X91" s="22"/>
     </row>
-    <row r="92" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="92" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M92" s="12">
         <v>110</v>
       </c>
@@ -26336,7 +26735,7 @@
       </c>
       <c r="X92" s="22"/>
     </row>
-    <row r="93" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="93" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M93" s="12">
         <v>111</v>
       </c>
@@ -26372,7 +26771,7 @@
       </c>
       <c r="X93" s="22"/>
     </row>
-    <row r="94" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="94" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M94" s="12">
         <v>112</v>
       </c>
@@ -26408,7 +26807,7 @@
       </c>
       <c r="X94" s="22"/>
     </row>
-    <row r="95" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="95" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M95" s="12">
         <v>113</v>
       </c>
@@ -26444,7 +26843,7 @@
       </c>
       <c r="X95" s="22"/>
     </row>
-    <row r="96" spans="13:24" x14ac:dyDescent="0.35">
+    <row r="96" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M96" s="12">
         <v>114</v>
       </c>
@@ -26476,7 +26875,7 @@
       <c r="W96" s="26"/>
       <c r="X96" s="23"/>
     </row>
-    <row r="97" spans="13:20" x14ac:dyDescent="0.35">
+    <row r="97" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M97" s="12">
         <v>115</v>
       </c>
@@ -26494,7 +26893,7 @@
       <c r="S97" s="12"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="13:20" x14ac:dyDescent="0.35">
+    <row r="98" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M98" s="12">
         <v>116</v>
       </c>
@@ -26512,7 +26911,7 @@
       <c r="S98" s="12"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="13:20" x14ac:dyDescent="0.35">
+    <row r="99" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M99" s="12">
         <v>117</v>
       </c>
@@ -26530,7 +26929,7 @@
       <c r="S99" s="12"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="13:20" x14ac:dyDescent="0.35">
+    <row r="100" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M100" s="12">
         <v>118</v>
       </c>
@@ -26548,7 +26947,7 @@
       <c r="S100" s="12"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="13:20" x14ac:dyDescent="0.35">
+    <row r="101" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M101" s="12">
         <v>119</v>
       </c>
@@ -26566,7 +26965,7 @@
       <c r="S101" s="12"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="13:20" x14ac:dyDescent="0.35">
+    <row r="102" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M102" s="12">
         <v>120</v>
       </c>
@@ -26584,7 +26983,7 @@
       <c r="S102" s="12"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="13:20" x14ac:dyDescent="0.35">
+    <row r="103" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M103" s="12">
         <v>121</v>
       </c>
@@ -26602,7 +27001,7 @@
       <c r="S103" s="12"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="13:20" x14ac:dyDescent="0.35">
+    <row r="104" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M104" s="13">
         <v>122</v>
       </c>

--- a/AutoDemoPointers.xlsx
+++ b/AutoDemoPointers.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D64653-FA56-4BEC-8F82-4BCE8AE95EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1CE318-B0BF-4449-8504-56940D65AD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20010" yWindow="660" windowWidth="17925" windowHeight="9465" xr2:uid="{BF0A0D91-B89A-4FB4-ACC8-F22FBFD306B3}"/>
+    <workbookView xWindow="-20520" yWindow="300" windowWidth="20640" windowHeight="11160" xr2:uid="{BF0A0D91-B89A-4FB4-ACC8-F22FBFD306B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Data List" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3289" uniqueCount="1815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3324" uniqueCount="1837">
   <si>
     <t>Big Endian</t>
   </si>
@@ -5410,9 +5410,6 @@
     <t>8C0C0620</t>
   </si>
   <si>
-    <t>UnkChaos62</t>
-  </si>
-  <si>
     <t>8C0C03E0</t>
   </si>
   <si>
@@ -5477,6 +5474,75 @@
   </si>
   <si>
     <t>8C4D7534</t>
+  </si>
+  <si>
+    <t>Path List</t>
+  </si>
+  <si>
+    <t>0X17EC00</t>
+  </si>
+  <si>
+    <t>8C0486E0</t>
+  </si>
+  <si>
+    <t>8C68768C</t>
+  </si>
+  <si>
+    <t>8C687668</t>
+  </si>
+  <si>
+    <t>8C595F7A</t>
+  </si>
+  <si>
+    <t>8C596084</t>
+  </si>
+  <si>
+    <t>8C6876D4</t>
+  </si>
+  <si>
+    <t>UnkChaos41</t>
+  </si>
+  <si>
+    <t>8C04A780</t>
+  </si>
+  <si>
+    <t>UnkChaos4Val1</t>
+  </si>
+  <si>
+    <t>8C6A4F48</t>
+  </si>
+  <si>
+    <t>UnkChaos4Val2</t>
+  </si>
+  <si>
+    <t>8C6A4F4C</t>
+  </si>
+  <si>
+    <t>8C6A4F94</t>
+  </si>
+  <si>
+    <t>UnkChaos4Val3</t>
+  </si>
+  <si>
+    <t>UnkChaos42</t>
+  </si>
+  <si>
+    <t>UnkChaos43</t>
+  </si>
+  <si>
+    <t>CalcChaosObjectPos</t>
+  </si>
+  <si>
+    <t>8C5AF274</t>
+  </si>
+  <si>
+    <t>8C5AF16C</t>
+  </si>
+  <si>
+    <t>Creates the water, there are like 4 of these in the fixed pointer's area but they're identical.</t>
+  </si>
+  <si>
+    <t>Should delete the water probably.</t>
   </si>
 </sst>
 </file>
@@ -6100,10 +6166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491E3355-FE0C-4C06-9A33-67ABC97DABE2}">
-  <dimension ref="A1:O491"/>
+  <dimension ref="A1:O499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E439" sqref="E437:G439"/>
+    <sheetView tabSelected="1" topLeftCell="A425" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G443" sqref="G443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15464,9 +15530,8 @@
       <c r="F281" t="s">
         <v>1337</v>
       </c>
-      <c r="G281" t="str">
-        <f t="shared" si="23"/>
-        <v>8C5B81C4</v>
+      <c r="G281" t="s">
+        <v>1341</v>
       </c>
       <c r="H281" t="str">
         <f t="shared" si="21"/>
@@ -19869,15 +19934,15 @@
         <v>1750</v>
       </c>
       <c r="G417" t="str">
-        <f t="shared" ref="G417:G439" si="38">VLOOKUP(E417,$A:$C,2,FALSE)</f>
+        <f t="shared" ref="G417:G445" si="38">VLOOKUP(E417,$A:$C,2,FALSE)</f>
         <v>8C06E870</v>
       </c>
       <c r="H417" t="str">
-        <f t="shared" ref="H417:H439" si="39">MID(F417,7,2)&amp;MID(F417,5,2)&amp;MID(F417,3,2)&amp;MID(F417,1,2)</f>
+        <f t="shared" ref="H417:H445" si="39">MID(F417,7,2)&amp;MID(F417,5,2)&amp;MID(F417,3,2)&amp;MID(F417,1,2)</f>
         <v>F0A5068C</v>
       </c>
       <c r="I417" t="str">
-        <f t="shared" ref="I417:I439" si="40">VLOOKUP(E417,$A:$C,3,FALSE)</f>
+        <f t="shared" ref="I417:I445" si="40">VLOOKUP(E417,$A:$C,3,FALSE)</f>
         <v>70E8068C</v>
       </c>
       <c r="J417" s="1" t="s">
@@ -20229,10 +20294,10 @@
         <v>80E30B8C</v>
       </c>
       <c r="E428" t="s">
-        <v>1792</v>
+        <v>1832</v>
       </c>
       <c r="F428" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="G428" t="str">
         <f t="shared" si="38"/>
@@ -20247,7 +20312,7 @@
         <v>E0030C8C</v>
       </c>
       <c r="J428" s="1" t="s">
-        <v>530</v>
+        <v>63</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.25">
@@ -20262,10 +20327,10 @@
         <v>00E50B8C</v>
       </c>
       <c r="E429" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="F429" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="G429" t="str">
         <f t="shared" si="38"/>
@@ -20298,7 +20363,7 @@
         <v>1784</v>
       </c>
       <c r="F430" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="G430" t="str">
         <f t="shared" si="38"/>
@@ -20331,7 +20396,7 @@
         <v>1790</v>
       </c>
       <c r="F431" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="G431" t="str">
         <f t="shared" si="38"/>
@@ -20364,7 +20429,7 @@
         <v>1786</v>
       </c>
       <c r="F432" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="G432" t="str">
         <f t="shared" si="38"/>
@@ -20382,7 +20447,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1632</v>
       </c>
@@ -20394,10 +20459,10 @@
         <v>E86C798C</v>
       </c>
       <c r="E433" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="F433" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="G433" t="str">
         <f t="shared" si="38"/>
@@ -20415,7 +20480,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>1633</v>
       </c>
@@ -20427,10 +20492,10 @@
         <v>1CF3508C</v>
       </c>
       <c r="E434" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="F434" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="G434" t="str">
         <f t="shared" si="38"/>
@@ -20448,7 +20513,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>1701</v>
       </c>
@@ -20463,7 +20528,7 @@
         <v>1788</v>
       </c>
       <c r="F435" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="G435" t="str">
         <f t="shared" si="38"/>
@@ -20481,7 +20546,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1617</v>
       </c>
@@ -20514,7 +20579,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>1639</v>
       </c>
@@ -20526,10 +20591,10 @@
         <v>AA4E6A8C</v>
       </c>
       <c r="E437" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="F437" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="G437" t="str">
         <f t="shared" si="38"/>
@@ -20547,7 +20612,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>1638</v>
       </c>
@@ -20559,10 +20624,10 @@
         <v>6818608C</v>
       </c>
       <c r="E438" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="F438" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="G438" t="str">
         <f t="shared" si="38"/>
@@ -20580,7 +20645,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>1626</v>
       </c>
@@ -20592,10 +20657,10 @@
         <v>E2F60B8C</v>
       </c>
       <c r="E439" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="F439" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="G439" t="str">
         <f t="shared" si="38"/>
@@ -20613,7 +20678,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1625</v>
       </c>
@@ -20624,8 +20689,29 @@
         <f t="shared" si="31"/>
         <v>E0FC0B8C</v>
       </c>
-    </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E440" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F440" t="s">
+        <v>1816</v>
+      </c>
+      <c r="G440" t="str">
+        <f t="shared" si="38"/>
+        <v>8C04A780</v>
+      </c>
+      <c r="H440" t="str">
+        <f t="shared" si="39"/>
+        <v>E086048C</v>
+      </c>
+      <c r="I440" t="str">
+        <f t="shared" si="40"/>
+        <v>80A7048C</v>
+      </c>
+      <c r="J440" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>1599</v>
       </c>
@@ -20636,8 +20722,29 @@
         <f t="shared" si="31"/>
         <v>34FF0B8C</v>
       </c>
-    </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E441" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F441" t="s">
+        <v>1817</v>
+      </c>
+      <c r="G441" t="str">
+        <f t="shared" si="38"/>
+        <v>8C6A4F4C</v>
+      </c>
+      <c r="H441" t="str">
+        <f t="shared" si="39"/>
+        <v>8C76688C</v>
+      </c>
+      <c r="I441" t="str">
+        <f t="shared" si="40"/>
+        <v>4C4F6A8C</v>
+      </c>
+      <c r="J441" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>1699</v>
       </c>
@@ -20645,11 +20752,32 @@
         <v>1700</v>
       </c>
       <c r="C442" t="str">
-        <f t="shared" ref="C442:C490" si="41">MID(B442,7,2)&amp;MID(B442,5,2)&amp;MID(B442,3,2)&amp;MID(B442,1,2)</f>
+        <f t="shared" ref="C442:C499" si="41">MID(B442,7,2)&amp;MID(B442,5,2)&amp;MID(B442,3,2)&amp;MID(B442,1,2)</f>
         <v>186B798C</v>
       </c>
-    </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E442" t="s">
+        <v>1824</v>
+      </c>
+      <c r="F442" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G442" t="str">
+        <f t="shared" si="38"/>
+        <v>8C6A4F48</v>
+      </c>
+      <c r="H442" t="str">
+        <f t="shared" si="39"/>
+        <v>6876688C</v>
+      </c>
+      <c r="I442" t="str">
+        <f t="shared" si="40"/>
+        <v>484F6A8C</v>
+      </c>
+      <c r="J442" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>1635</v>
       </c>
@@ -20660,8 +20788,32 @@
         <f t="shared" si="41"/>
         <v>20FB0B8C</v>
       </c>
-    </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E443" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F443" t="s">
+        <v>1819</v>
+      </c>
+      <c r="G443" t="str">
+        <f t="shared" si="38"/>
+        <v>8C5AF16C</v>
+      </c>
+      <c r="H443" t="str">
+        <f t="shared" si="39"/>
+        <v>7A5F598C</v>
+      </c>
+      <c r="I443" t="str">
+        <f t="shared" si="40"/>
+        <v>6CF15A8C</v>
+      </c>
+      <c r="J443" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="L443" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>1693</v>
       </c>
@@ -20672,8 +20824,32 @@
         <f t="shared" si="41"/>
         <v>26A7048C</v>
       </c>
-    </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E444" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F444" t="s">
+        <v>1820</v>
+      </c>
+      <c r="G444" t="str">
+        <f t="shared" si="38"/>
+        <v>8C5AF274</v>
+      </c>
+      <c r="H444" t="str">
+        <f t="shared" si="39"/>
+        <v>8460598C</v>
+      </c>
+      <c r="I444" t="str">
+        <f t="shared" si="40"/>
+        <v>74F25A8C</v>
+      </c>
+      <c r="J444" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L444" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>1628</v>
       </c>
@@ -20684,8 +20860,29 @@
         <f t="shared" si="41"/>
         <v>FAE50B8C</v>
       </c>
-    </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E445" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F445" t="s">
+        <v>1821</v>
+      </c>
+      <c r="G445" t="str">
+        <f t="shared" si="38"/>
+        <v>8C6A4F94</v>
+      </c>
+      <c r="H445" t="str">
+        <f t="shared" si="39"/>
+        <v>D476688C</v>
+      </c>
+      <c r="I445" t="str">
+        <f t="shared" si="40"/>
+        <v>944F6A8C</v>
+      </c>
+      <c r="J445" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>1636</v>
       </c>
@@ -20697,7 +20894,7 @@
         <v>6003518C</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>1637</v>
       </c>
@@ -20709,7 +20906,7 @@
         <v>582C518C</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1706</v>
       </c>
@@ -21154,10 +21351,10 @@
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B484" t="s">
         <v>1792</v>
-      </c>
-      <c r="B484" t="s">
-        <v>1793</v>
       </c>
       <c r="C484" t="str">
         <f t="shared" si="41"/>
@@ -21172,10 +21369,10 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B485" t="s">
         <v>1794</v>
-      </c>
-      <c r="B485" t="s">
-        <v>1795</v>
       </c>
       <c r="C485" t="str">
         <f t="shared" si="41"/>
@@ -21197,7 +21394,7 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B486" t="s">
         <v>348</v>
@@ -21212,7 +21409,7 @@
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B487" t="s">
         <v>353</v>
@@ -21237,10 +21434,10 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B488" t="s">
         <v>1798</v>
-      </c>
-      <c r="B488" t="s">
-        <v>1799</v>
       </c>
       <c r="C488" t="str">
         <f t="shared" si="41"/>
@@ -21258,10 +21455,10 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B489" t="s">
         <v>1800</v>
-      </c>
-      <c r="B489" t="s">
-        <v>1801</v>
       </c>
       <c r="C489" t="str">
         <f t="shared" si="41"/>
@@ -21283,10 +21480,10 @@
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B490" t="s">
         <v>1802</v>
-      </c>
-      <c r="B490" t="s">
-        <v>1803</v>
       </c>
       <c r="C490" t="str">
         <f t="shared" si="41"/>
@@ -21303,6 +21500,16 @@
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C491" t="str">
+        <f t="shared" si="41"/>
+        <v>80A7048C</v>
+      </c>
       <c r="E491" t="s">
         <v>1422</v>
       </c>
@@ -21315,6 +21522,90 @@
       <c r="H491" t="str">
         <f>MID(G491,7,2)&amp;MID(G491,5,2)&amp;MID(G491,3,2)&amp;MID(G491,1,2)</f>
         <v>6048900C</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C492" t="str">
+        <f t="shared" si="41"/>
+        <v>484F6A8C</v>
+      </c>
+      <c r="E492" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F492" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C493" t="str">
+        <f t="shared" si="41"/>
+        <v>4C4F6A8C</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C494" t="str">
+        <f t="shared" si="41"/>
+        <v>944F6A8C</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C495" t="str">
+        <f t="shared" si="41"/>
+        <v>6CF15A8C</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C496" t="str">
+        <f t="shared" si="41"/>
+        <v>74F25A8C</v>
+      </c>
+    </row>
+    <row r="497" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C497" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+    </row>
+    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C498" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+    </row>
+    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C499" t="str">
+        <f t="shared" si="41"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/AutoDemoPointers.xlsx
+++ b/AutoDemoPointers.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1CE318-B0BF-4449-8504-56940D65AD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430AF02C-44EE-46AB-904B-FCCC068B0A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="300" windowWidth="20640" windowHeight="11160" xr2:uid="{BF0A0D91-B89A-4FB4-ACC8-F22FBFD306B3}"/>
+    <workbookView xWindow="-18450" yWindow="1035" windowWidth="17925" windowHeight="9465" xr2:uid="{BF0A0D91-B89A-4FB4-ACC8-F22FBFD306B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Data List" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3324" uniqueCount="1837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3340" uniqueCount="1847">
   <si>
     <t>Big Endian</t>
   </si>
@@ -5543,6 +5543,36 @@
   </si>
   <si>
     <t>Should delete the water probably.</t>
+  </si>
+  <si>
+    <t>8C5E633E</t>
+  </si>
+  <si>
+    <t>8C5A0AD8</t>
+  </si>
+  <si>
+    <t>8C0D724C</t>
+  </si>
+  <si>
+    <t>UnkEggHornet1</t>
+  </si>
+  <si>
+    <t>Texture call</t>
+  </si>
+  <si>
+    <t>8C6049DA</t>
+  </si>
+  <si>
+    <t>njRotateZXY</t>
+  </si>
+  <si>
+    <t>8C5BF094</t>
+  </si>
+  <si>
+    <t>UnkEggHornet2</t>
+  </si>
+  <si>
+    <t>8C0E0484</t>
   </si>
 </sst>
 </file>
@@ -6168,8 +6198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491E3355-FE0C-4C06-9A33-67ABC97DABE2}">
   <dimension ref="A1:O499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A425" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G443" sqref="G443"/>
+    <sheetView tabSelected="1" topLeftCell="A236" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F243" sqref="F243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19934,15 +19964,15 @@
         <v>1750</v>
       </c>
       <c r="G417" t="str">
-        <f t="shared" ref="G417:G445" si="38">VLOOKUP(E417,$A:$C,2,FALSE)</f>
+        <f t="shared" ref="G417:G448" si="38">VLOOKUP(E417,$A:$C,2,FALSE)</f>
         <v>8C06E870</v>
       </c>
       <c r="H417" t="str">
-        <f t="shared" ref="H417:H445" si="39">MID(F417,7,2)&amp;MID(F417,5,2)&amp;MID(F417,3,2)&amp;MID(F417,1,2)</f>
+        <f t="shared" ref="H417:H448" si="39">MID(F417,7,2)&amp;MID(F417,5,2)&amp;MID(F417,3,2)&amp;MID(F417,1,2)</f>
         <v>F0A5068C</v>
       </c>
       <c r="I417" t="str">
-        <f t="shared" ref="I417:I445" si="40">VLOOKUP(E417,$A:$C,3,FALSE)</f>
+        <f t="shared" ref="I417:I448" si="40">VLOOKUP(E417,$A:$C,3,FALSE)</f>
         <v>70E8068C</v>
       </c>
       <c r="J417" s="1" t="s">
@@ -20893,6 +20923,30 @@
         <f t="shared" si="41"/>
         <v>6003518C</v>
       </c>
+      <c r="E446" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F446" t="s">
+        <v>1837</v>
+      </c>
+      <c r="G446" t="str">
+        <f t="shared" si="38"/>
+        <v>8C6049DA</v>
+      </c>
+      <c r="H446" t="str">
+        <f t="shared" si="39"/>
+        <v>3E635E8C</v>
+      </c>
+      <c r="I446" t="str">
+        <f t="shared" si="40"/>
+        <v>DA49608C</v>
+      </c>
+      <c r="J446" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="L446" t="s">
+        <v>1841</v>
+      </c>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
@@ -20905,6 +20959,27 @@
         <f t="shared" si="41"/>
         <v>582C518C</v>
       </c>
+      <c r="E447" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F447" t="s">
+        <v>1838</v>
+      </c>
+      <c r="G447" t="str">
+        <f t="shared" si="38"/>
+        <v>8C5BF094</v>
+      </c>
+      <c r="H447" t="str">
+        <f t="shared" si="39"/>
+        <v>D80A5A8C</v>
+      </c>
+      <c r="I447" t="str">
+        <f t="shared" si="40"/>
+        <v>94F05B8C</v>
+      </c>
+      <c r="J447" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
@@ -20917,6 +20992,27 @@
         <f t="shared" si="41"/>
         <v>5033798C</v>
       </c>
+      <c r="E448" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F448" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G448" t="str">
+        <f t="shared" si="38"/>
+        <v>8C0E0484</v>
+      </c>
+      <c r="H448" t="str">
+        <f t="shared" si="39"/>
+        <v>4C720D8C</v>
+      </c>
+      <c r="I448" t="str">
+        <f t="shared" si="40"/>
+        <v>84040E8C</v>
+      </c>
+      <c r="J448" s="1" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
@@ -21590,22 +21686,40 @@
         <v>74F25A8C</v>
       </c>
     </row>
-    <row r="497" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1842</v>
+      </c>
       <c r="C497" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
+        <v>DA49608C</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1844</v>
+      </c>
       <c r="C498" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
-    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
+        <v>94F05B8C</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1846</v>
+      </c>
       <c r="C499" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>84040E8C</v>
       </c>
     </row>
   </sheetData>

--- a/AutoDemoPointers.xlsx
+++ b/AutoDemoPointers.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430AF02C-44EE-46AB-904B-FCCC068B0A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1B5BC9-5F94-4828-B6CD-96DDF89440A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18450" yWindow="1035" windowWidth="17925" windowHeight="9465" xr2:uid="{BF0A0D91-B89A-4FB4-ACC8-F22FBFD306B3}"/>
+    <workbookView xWindow="-19500" yWindow="1425" windowWidth="17925" windowHeight="9465" xr2:uid="{BF0A0D91-B89A-4FB4-ACC8-F22FBFD306B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Data List" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3340" uniqueCount="1847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="1859">
   <si>
     <t>Big Endian</t>
   </si>
@@ -5573,6 +5573,42 @@
   </si>
   <si>
     <t>8C0E0484</t>
+  </si>
+  <si>
+    <t>8C055680</t>
+  </si>
+  <si>
+    <t>8C59FAA0</t>
+  </si>
+  <si>
+    <t>8C5E30C4</t>
+  </si>
+  <si>
+    <t>8C5E30F2</t>
+  </si>
+  <si>
+    <t>UnkEggViper1</t>
+  </si>
+  <si>
+    <t>8C0587A0</t>
+  </si>
+  <si>
+    <t>UnkEggViper2</t>
+  </si>
+  <si>
+    <t>8C5BE060</t>
+  </si>
+  <si>
+    <t>UnkEggViper3</t>
+  </si>
+  <si>
+    <t>UnkEggViper4</t>
+  </si>
+  <si>
+    <t>8C601680</t>
+  </si>
+  <si>
+    <t>8C6016AE</t>
   </si>
 </sst>
 </file>
@@ -6196,10 +6232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491E3355-FE0C-4C06-9A33-67ABC97DABE2}">
-  <dimension ref="A1:O499"/>
+  <dimension ref="A1:O503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F243" sqref="F243"/>
+    <sheetView tabSelected="1" topLeftCell="A225" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F229" sqref="F229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19964,15 +20000,15 @@
         <v>1750</v>
       </c>
       <c r="G417" t="str">
-        <f t="shared" ref="G417:G448" si="38">VLOOKUP(E417,$A:$C,2,FALSE)</f>
+        <f t="shared" ref="G417:G452" si="38">VLOOKUP(E417,$A:$C,2,FALSE)</f>
         <v>8C06E870</v>
       </c>
       <c r="H417" t="str">
-        <f t="shared" ref="H417:H448" si="39">MID(F417,7,2)&amp;MID(F417,5,2)&amp;MID(F417,3,2)&amp;MID(F417,1,2)</f>
+        <f t="shared" ref="H417:H452" si="39">MID(F417,7,2)&amp;MID(F417,5,2)&amp;MID(F417,3,2)&amp;MID(F417,1,2)</f>
         <v>F0A5068C</v>
       </c>
       <c r="I417" t="str">
-        <f t="shared" ref="I417:I448" si="40">VLOOKUP(E417,$A:$C,3,FALSE)</f>
+        <f t="shared" ref="I417:I452" si="40">VLOOKUP(E417,$A:$C,3,FALSE)</f>
         <v>70E8068C</v>
       </c>
       <c r="J417" s="1" t="s">
@@ -20782,7 +20818,7 @@
         <v>1700</v>
       </c>
       <c r="C442" t="str">
-        <f t="shared" ref="C442:C499" si="41">MID(B442,7,2)&amp;MID(B442,5,2)&amp;MID(B442,3,2)&amp;MID(B442,1,2)</f>
+        <f t="shared" ref="C442:C503" si="41">MID(B442,7,2)&amp;MID(B442,5,2)&amp;MID(B442,3,2)&amp;MID(B442,1,2)</f>
         <v>186B798C</v>
       </c>
       <c r="E442" t="s">
@@ -21014,7 +21050,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1728</v>
       </c>
@@ -21025,8 +21061,26 @@
         <f t="shared" si="41"/>
         <v>B0A85A8C</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E449" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F449" t="s">
+        <v>1847</v>
+      </c>
+      <c r="G449" t="str">
+        <f t="shared" si="38"/>
+        <v>8C0587A0</v>
+      </c>
+      <c r="H449" t="str">
+        <f t="shared" si="39"/>
+        <v>8056058C</v>
+      </c>
+      <c r="I449" t="str">
+        <f t="shared" si="40"/>
+        <v>A087058C</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>1727</v>
       </c>
@@ -21037,8 +21091,26 @@
         <f t="shared" si="41"/>
         <v>B0A85A8C</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E450" t="s">
+        <v>1853</v>
+      </c>
+      <c r="F450" t="s">
+        <v>1848</v>
+      </c>
+      <c r="G450" t="str">
+        <f t="shared" si="38"/>
+        <v>8C5BE060</v>
+      </c>
+      <c r="H450" t="str">
+        <f t="shared" si="39"/>
+        <v>A0FA598C</v>
+      </c>
+      <c r="I450" t="str">
+        <f t="shared" si="40"/>
+        <v>60E05B8C</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>1729</v>
       </c>
@@ -21049,8 +21121,26 @@
         <f t="shared" si="41"/>
         <v>B0A85A8C</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E451" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F451" t="s">
+        <v>1849</v>
+      </c>
+      <c r="G451" t="str">
+        <f t="shared" si="38"/>
+        <v>8C601680</v>
+      </c>
+      <c r="H451" t="str">
+        <f t="shared" si="39"/>
+        <v>C4305E8C</v>
+      </c>
+      <c r="I451" t="str">
+        <f t="shared" si="40"/>
+        <v>8016608C</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1730</v>
       </c>
@@ -21061,8 +21151,26 @@
         <f t="shared" si="41"/>
         <v>B0A85A8C</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E452" t="s">
+        <v>1856</v>
+      </c>
+      <c r="F452" t="s">
+        <v>1850</v>
+      </c>
+      <c r="G452" t="str">
+        <f t="shared" si="38"/>
+        <v>8C6016AE</v>
+      </c>
+      <c r="H452" t="str">
+        <f t="shared" si="39"/>
+        <v>F2305E8C</v>
+      </c>
+      <c r="I452" t="str">
+        <f t="shared" si="40"/>
+        <v>AE16608C</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1731</v>
       </c>
@@ -21074,7 +21182,7 @@
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1732</v>
       </c>
@@ -21086,7 +21194,7 @@
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1733</v>
       </c>
@@ -21098,7 +21206,7 @@
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>1734</v>
       </c>
@@ -21110,7 +21218,7 @@
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>1735</v>
       </c>
@@ -21122,7 +21230,7 @@
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>1736</v>
       </c>
@@ -21134,7 +21242,7 @@
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>1737</v>
       </c>
@@ -21146,7 +21254,7 @@
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>1738</v>
       </c>
@@ -21158,7 +21266,7 @@
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>1739</v>
       </c>
@@ -21170,7 +21278,7 @@
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>1740</v>
       </c>
@@ -21182,7 +21290,7 @@
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>1741</v>
       </c>
@@ -21194,7 +21302,7 @@
         <v>B0A85A8C</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>1742</v>
       </c>
@@ -21720,6 +21828,54 @@
       <c r="C499" t="str">
         <f t="shared" si="41"/>
         <v>84040E8C</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C500" t="str">
+        <f t="shared" si="41"/>
+        <v>A087058C</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C501" t="str">
+        <f t="shared" si="41"/>
+        <v>60E05B8C</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C502" t="str">
+        <f t="shared" si="41"/>
+        <v>8016608C</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C503" t="str">
+        <f t="shared" si="41"/>
+        <v>AE16608C</v>
       </c>
     </row>
   </sheetData>

--- a/AutoDemoPointers.xlsx
+++ b/AutoDemoPointers.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1B5BC9-5F94-4828-B6CD-96DDF89440A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0981355-520E-4088-8FB2-D8A85A6630FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19500" yWindow="1425" windowWidth="17925" windowHeight="9465" xr2:uid="{BF0A0D91-B89A-4FB4-ACC8-F22FBFD306B3}"/>
+    <workbookView xWindow="-19500" yWindow="1425" windowWidth="17715" windowHeight="9465" xr2:uid="{BF0A0D91-B89A-4FB4-ACC8-F22FBFD306B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Data List" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="1859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="1860">
   <si>
     <t>Big Endian</t>
   </si>
@@ -5593,9 +5593,6 @@
     <t>8C0587A0</t>
   </si>
   <si>
-    <t>UnkEggViper2</t>
-  </si>
-  <si>
     <t>8C5BE060</t>
   </si>
   <si>
@@ -5609,6 +5606,12 @@
   </si>
   <si>
     <t>8C6016AE</t>
+  </si>
+  <si>
+    <t>1807C8</t>
+  </si>
+  <si>
+    <t>njGetMatrix</t>
   </si>
 </sst>
 </file>
@@ -6234,8 +6237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491E3355-FE0C-4C06-9A33-67ABC97DABE2}">
   <dimension ref="A1:O503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F229" sqref="F229"/>
+    <sheetView tabSelected="1" topLeftCell="A440" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G448" sqref="G448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21092,7 +21095,7 @@
         <v>B0A85A8C</v>
       </c>
       <c r="E450" t="s">
-        <v>1853</v>
+        <v>1859</v>
       </c>
       <c r="F450" t="s">
         <v>1848</v>
@@ -21122,7 +21125,7 @@
         <v>B0A85A8C</v>
       </c>
       <c r="E451" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="F451" t="s">
         <v>1849</v>
@@ -21152,7 +21155,7 @@
         <v>B0A85A8C</v>
       </c>
       <c r="E452" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="F452" t="s">
         <v>1850</v>
@@ -21793,6 +21796,9 @@
         <f t="shared" si="41"/>
         <v>74F25A8C</v>
       </c>
+      <c r="F496" t="s">
+        <v>1858</v>
+      </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
@@ -21844,10 +21850,10 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B501" t="s">
         <v>1853</v>
-      </c>
-      <c r="B501" t="s">
-        <v>1854</v>
       </c>
       <c r="C501" t="str">
         <f t="shared" si="41"/>
@@ -21856,10 +21862,10 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B502" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C502" t="str">
         <f t="shared" si="41"/>
@@ -21868,10 +21874,10 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B503" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C503" t="str">
         <f t="shared" si="41"/>
